--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9821011986163717</v>
+        <v>0.9821011986163728</v>
       </c>
       <c r="D2">
-        <v>1.00513229646748</v>
+        <v>1.005132296467481</v>
       </c>
       <c r="E2">
-        <v>0.9885473015281755</v>
+        <v>0.9885473015281764</v>
       </c>
       <c r="F2">
-        <v>1.001870517439675</v>
+        <v>1.001870517439676</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039334372874467</v>
       </c>
       <c r="J2">
-        <v>1.004830764919577</v>
+        <v>1.004830764919578</v>
       </c>
       <c r="K2">
-        <v>1.016520590338411</v>
+        <v>1.016520590338412</v>
       </c>
       <c r="L2">
         <v>1.000168530673502</v>
       </c>
       <c r="M2">
-        <v>1.013303854350594</v>
+        <v>1.013303854350595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.991699234454919</v>
+        <v>0.9916992344549188</v>
       </c>
       <c r="D3">
         <v>1.012706517928153</v>
@@ -486,7 +486,7 @@
         <v>1.007534781995005</v>
       </c>
       <c r="M3">
-        <v>1.021567569167053</v>
+        <v>1.021567569167054</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9976639645882723</v>
+        <v>0.9976639645882734</v>
       </c>
       <c r="D4">
-        <v>1.017416937349268</v>
+        <v>1.017416937349269</v>
       </c>
       <c r="E4">
-        <v>1.002029292548341</v>
+        <v>1.002029292548342</v>
       </c>
       <c r="F4">
-        <v>1.016806315503993</v>
+        <v>1.016806315503994</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045158846390692</v>
       </c>
       <c r="J4">
-        <v>1.017127615744562</v>
+        <v>1.017127615744563</v>
       </c>
       <c r="K4">
         <v>1.027309603420578</v>
       </c>
       <c r="L4">
-        <v>1.012103287344457</v>
+        <v>1.012103287344458</v>
       </c>
       <c r="M4">
-        <v>1.026706047923183</v>
+        <v>1.026706047923184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046068857600008</v>
+        <v>1.046068857600007</v>
       </c>
       <c r="J5">
         <v>1.019062463761164</v>
@@ -559,7 +559,7 @@
         <v>1.029006199383977</v>
       </c>
       <c r="L5">
-        <v>1.013979815510321</v>
+        <v>1.013979815510322</v>
       </c>
       <c r="M5">
         <v>1.028819855211405</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000525806909037</v>
+        <v>1.000525806909039</v>
       </c>
       <c r="D6">
-        <v>1.019677748939909</v>
+        <v>1.019677748939911</v>
       </c>
       <c r="E6">
-        <v>1.004508808556828</v>
+        <v>1.004508808556829</v>
       </c>
       <c r="F6">
-        <v>1.019559765074753</v>
+        <v>1.019559765074755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046220273888944</v>
+        <v>1.046220273888945</v>
       </c>
       <c r="J6">
-        <v>1.019384800629325</v>
+        <v>1.019384800629327</v>
       </c>
       <c r="K6">
-        <v>1.02928881344053</v>
+        <v>1.029288813440532</v>
       </c>
       <c r="L6">
-        <v>1.014292397903671</v>
+        <v>1.014292397903673</v>
       </c>
       <c r="M6">
-        <v>1.029172147086897</v>
+        <v>1.029172147086898</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976969512145991</v>
+        <v>0.9976969512145998</v>
       </c>
       <c r="D7">
-        <v>1.017442993577257</v>
+        <v>1.017442993577258</v>
       </c>
       <c r="E7">
-        <v>1.002057872204079</v>
+        <v>1.00205787220408</v>
       </c>
       <c r="F7">
         <v>1.016838040351769</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045171099333647</v>
+        <v>1.045171099333648</v>
       </c>
       <c r="J7">
-        <v>1.017153640914868</v>
+        <v>1.017153640914869</v>
       </c>
       <c r="K7">
         <v>1.027332425992123</v>
@@ -638,7 +638,7 @@
         <v>1.012128530673364</v>
       </c>
       <c r="M7">
-        <v>1.026734470681433</v>
+        <v>1.026734470681434</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853985763839955</v>
+        <v>0.9853985763839945</v>
       </c>
       <c r="D8">
-        <v>1.007733563139101</v>
+        <v>1.0077335631391</v>
       </c>
       <c r="E8">
-        <v>0.9914034114597855</v>
+        <v>0.9914034114597849</v>
       </c>
       <c r="F8">
-        <v>1.005029835147983</v>
+        <v>1.005029835147982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040575234919483</v>
+        <v>1.040575234919482</v>
       </c>
       <c r="J8">
-        <v>1.00743898319324</v>
+        <v>1.007438983193239</v>
       </c>
       <c r="K8">
-        <v>1.018809787577004</v>
+        <v>1.018809787577003</v>
       </c>
       <c r="L8">
-        <v>1.00270110207813</v>
+        <v>1.002701102078129</v>
       </c>
       <c r="M8">
-        <v>1.016142102465489</v>
+        <v>1.016142102465488</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9616178695133486</v>
+        <v>0.9616178695133492</v>
       </c>
       <c r="D9">
-        <v>0.9889968008033029</v>
+        <v>0.9889968008033034</v>
       </c>
       <c r="E9">
-        <v>0.9708143020153046</v>
+        <v>0.9708143020153051</v>
       </c>
       <c r="F9">
-        <v>0.9823063002255792</v>
+        <v>0.9823063002255791</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031559016673148</v>
       </c>
       <c r="J9">
-        <v>0.9886028090837042</v>
+        <v>0.9886028090837048</v>
       </c>
       <c r="K9">
-        <v>1.002270956037093</v>
+        <v>1.002270956037094</v>
       </c>
       <c r="L9">
-        <v>0.984399337235924</v>
+        <v>0.9843993372359244</v>
       </c>
       <c r="M9">
-        <v>0.995693120285426</v>
+        <v>0.9956931202854261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9439645593067535</v>
+        <v>0.943964559306752</v>
       </c>
       <c r="D10">
-        <v>0.9751301825192304</v>
+        <v>0.9751301825192291</v>
       </c>
       <c r="E10">
-        <v>0.9555502594663716</v>
+        <v>0.9555502594663702</v>
       </c>
       <c r="F10">
-        <v>0.9655291045590311</v>
+        <v>0.9655291045590301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024784526165598</v>
+        <v>1.024784526165597</v>
       </c>
       <c r="J10">
-        <v>0.9745924096644004</v>
+        <v>0.974592409664399</v>
       </c>
       <c r="K10">
-        <v>0.9899634721755639</v>
+        <v>0.9899634721755626</v>
       </c>
       <c r="L10">
-        <v>0.9707712855773095</v>
+        <v>0.9707712855773082</v>
       </c>
       <c r="M10">
-        <v>0.9805499404697401</v>
+        <v>0.9805499404697394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9357834604012737</v>
+        <v>0.9357834604012704</v>
       </c>
       <c r="D11">
-        <v>0.9687186477084739</v>
+        <v>0.9687186477084709</v>
       </c>
       <c r="E11">
-        <v>0.948484418574837</v>
+        <v>0.9484844185748339</v>
       </c>
       <c r="F11">
-        <v>0.9577803790238493</v>
+        <v>0.9577803790238458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02162777091989</v>
+        <v>1.021627770919888</v>
       </c>
       <c r="J11">
-        <v>0.9680952198400726</v>
+        <v>0.9680952198400696</v>
       </c>
       <c r="K11">
-        <v>0.9842556199381464</v>
+        <v>0.9842556199381434</v>
       </c>
       <c r="L11">
-        <v>0.9644479371630367</v>
+        <v>0.9644479371630336</v>
       </c>
       <c r="M11">
-        <v>0.9735449725575138</v>
+        <v>0.9735449725575105</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9326520374308251</v>
+        <v>0.9326520374308279</v>
       </c>
       <c r="D12">
-        <v>0.9662672361590497</v>
+        <v>0.9662672361590516</v>
       </c>
       <c r="E12">
-        <v>0.9457814205039564</v>
+        <v>0.9457814205039591</v>
       </c>
       <c r="F12">
-        <v>0.9548188991755828</v>
+        <v>0.9548188991755845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020417115281139</v>
+        <v>1.02041711528114</v>
       </c>
       <c r="J12">
-        <v>0.9656079232765439</v>
+        <v>0.9656079232765463</v>
       </c>
       <c r="K12">
-        <v>0.982070551471654</v>
+        <v>0.9820705514716561</v>
       </c>
       <c r="L12">
-        <v>0.9620266887307173</v>
+        <v>0.9620266887307196</v>
       </c>
       <c r="M12">
-        <v>0.9708660937148771</v>
+        <v>0.9708660937148789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.933328148397147</v>
+        <v>0.9333281483971452</v>
       </c>
       <c r="D13">
-        <v>0.9667963949532382</v>
+        <v>0.9667963949532368</v>
       </c>
       <c r="E13">
-        <v>0.9463649536310388</v>
+        <v>0.946364953631037</v>
       </c>
       <c r="F13">
-        <v>0.9554581082714295</v>
+        <v>0.9554581082714279</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02067861258087</v>
       </c>
       <c r="J13">
-        <v>0.9661449740031779</v>
+        <v>0.9661449740031762</v>
       </c>
       <c r="K13">
-        <v>0.9825423418087194</v>
+        <v>0.9825423418087178</v>
       </c>
       <c r="L13">
-        <v>0.9625495008085166</v>
+        <v>0.962549500808515</v>
       </c>
       <c r="M13">
-        <v>0.9714443807019055</v>
+        <v>0.9714443807019039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9355265831718199</v>
+        <v>0.9355265831718206</v>
       </c>
       <c r="D14">
-        <v>0.9685174958925719</v>
+        <v>0.9685174958925727</v>
       </c>
       <c r="E14">
-        <v>0.9482626525102203</v>
+        <v>0.948262652510221</v>
       </c>
       <c r="F14">
-        <v>0.95753734963246</v>
+        <v>0.9575373496324605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021528504645797</v>
+        <v>1.021528504645798</v>
       </c>
       <c r="J14">
-        <v>0.9678911884395134</v>
+        <v>0.9678911884395142</v>
       </c>
       <c r="K14">
-        <v>0.9840763784723844</v>
+        <v>0.9840763784723849</v>
       </c>
       <c r="L14">
-        <v>0.96424933368206</v>
+        <v>0.9642493336820609</v>
       </c>
       <c r="M14">
-        <v>0.9733251679244649</v>
+        <v>0.9733251679244654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368684408843528</v>
+        <v>0.9368684408843534</v>
       </c>
       <c r="D15">
-        <v>0.9695683707781674</v>
+        <v>0.9695683707781677</v>
       </c>
       <c r="E15">
-        <v>0.9494211636387511</v>
+        <v>0.9494211636387514</v>
       </c>
       <c r="F15">
-        <v>0.9588070529431885</v>
+        <v>0.9588070529431894</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022046950752009</v>
       </c>
       <c r="J15">
-        <v>0.9689569785992501</v>
+        <v>0.9689569785992507</v>
       </c>
       <c r="K15">
-        <v>0.985012677140781</v>
+        <v>0.9850126771407812</v>
       </c>
       <c r="L15">
-        <v>0.9652867500298308</v>
+        <v>0.9652867500298311</v>
       </c>
       <c r="M15">
-        <v>0.9744734667700865</v>
+        <v>0.9744734667700869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444952364976125</v>
+        <v>0.9444952364976145</v>
       </c>
       <c r="D16">
-        <v>0.9755464136465968</v>
+        <v>0.975546413646599</v>
       </c>
       <c r="E16">
-        <v>0.9560087849201335</v>
+        <v>0.9560087849201354</v>
       </c>
       <c r="F16">
-        <v>0.9660323135259063</v>
+        <v>0.9660323135259089</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024988957595994</v>
+        <v>1.024988957595995</v>
       </c>
       <c r="J16">
-        <v>0.9750137880966956</v>
+        <v>0.9750137880966975</v>
       </c>
       <c r="K16">
-        <v>0.9903336584062188</v>
+        <v>0.9903336584062208</v>
       </c>
       <c r="L16">
-        <v>0.9711813197735866</v>
+        <v>0.9711813197735885</v>
       </c>
       <c r="M16">
-        <v>0.9810046239231097</v>
+        <v>0.9810046239231119</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9491278836912455</v>
+        <v>0.9491278836912447</v>
       </c>
       <c r="D17">
-        <v>0.9791816658934549</v>
+        <v>0.9791816658934541</v>
       </c>
       <c r="E17">
-        <v>0.9600124937015009</v>
+        <v>0.9600124937015003</v>
       </c>
       <c r="F17">
-        <v>0.9704281539766733</v>
+        <v>0.9704281539766729</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026771682667213</v>
+        <v>1.026771682667212</v>
       </c>
       <c r="J17">
-        <v>0.9786918320971815</v>
+        <v>0.9786918320971808</v>
       </c>
       <c r="K17">
-        <v>0.9935648351341045</v>
+        <v>0.993564835134104</v>
       </c>
       <c r="L17">
-        <v>0.9747599597497451</v>
+        <v>0.9747599597497444</v>
       </c>
       <c r="M17">
-        <v>0.9849753433627243</v>
+        <v>0.9849753433627237</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517791293074442</v>
+        <v>0.9517791293074425</v>
       </c>
       <c r="D18">
-        <v>0.9812634320940925</v>
+        <v>0.9812634320940911</v>
       </c>
       <c r="E18">
-        <v>0.9623045157515935</v>
+        <v>0.9623045157515918</v>
       </c>
       <c r="F18">
-        <v>0.9729462807376685</v>
+        <v>0.9729462807376673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027790316702254</v>
+        <v>1.027790316702253</v>
       </c>
       <c r="J18">
-        <v>0.9807963439417123</v>
+        <v>0.9807963439417109</v>
       </c>
       <c r="K18">
-        <v>0.9954136154194331</v>
+        <v>0.9954136154194317</v>
       </c>
       <c r="L18">
-        <v>0.9768072719094402</v>
+        <v>0.9768072719094386</v>
       </c>
       <c r="M18">
-        <v>0.9872489294264617</v>
+        <v>0.9872489294264601</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526748238716201</v>
+        <v>0.9526748238716174</v>
       </c>
       <c r="D19">
-        <v>0.981966946494693</v>
+        <v>0.9819669464946903</v>
       </c>
       <c r="E19">
-        <v>0.963078962935256</v>
+        <v>0.9630789629352532</v>
       </c>
       <c r="F19">
-        <v>0.9737973977548585</v>
+        <v>0.973797397754856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028134171725627</v>
+        <v>1.028134171725625</v>
       </c>
       <c r="J19">
-        <v>0.9815072532788413</v>
+        <v>0.9815072532788385</v>
       </c>
       <c r="K19">
-        <v>0.9960381281009063</v>
+        <v>0.9960381281009039</v>
       </c>
       <c r="L19">
-        <v>0.9774988039179739</v>
+        <v>0.9774988039179715</v>
       </c>
       <c r="M19">
-        <v>0.9880172211454962</v>
+        <v>0.9880172211454934</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.948636187252639</v>
+        <v>0.9486361872526387</v>
       </c>
       <c r="D20">
-        <v>0.9787956890033173</v>
+        <v>0.9787956890033171</v>
       </c>
       <c r="E20">
-        <v>0.9595874743324279</v>
+        <v>0.959587474332428</v>
       </c>
       <c r="F20">
-        <v>0.9699613379038783</v>
+        <v>0.9699613379038784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026582635689865</v>
+        <v>1.026582635689864</v>
       </c>
       <c r="J20">
-        <v>0.9783014966643706</v>
+        <v>0.9783014966643704</v>
       </c>
       <c r="K20">
-        <v>0.9932219275562307</v>
+        <v>0.9932219275562304</v>
       </c>
       <c r="L20">
-        <v>0.9743802071425807</v>
+        <v>0.9743802071425808</v>
       </c>
       <c r="M20">
-        <v>0.9845537785954099</v>
+        <v>0.9845537785954103</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9348818638131027</v>
+        <v>0.934881863813101</v>
       </c>
       <c r="D21">
-        <v>0.9680126829804856</v>
+        <v>0.9680126829804845</v>
       </c>
       <c r="E21">
-        <v>0.9477060824333369</v>
+        <v>0.9477060824333353</v>
       </c>
       <c r="F21">
-        <v>0.95692745916904</v>
+        <v>0.9569274591690388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021279325619361</v>
+        <v>1.02127932561936</v>
       </c>
       <c r="J21">
-        <v>0.9673790976633836</v>
+        <v>0.9673790976633818</v>
       </c>
       <c r="K21">
-        <v>0.9836265081950983</v>
+        <v>0.9836265081950972</v>
       </c>
       <c r="L21">
-        <v>0.9637508582482444</v>
+        <v>0.9637508582482428</v>
       </c>
       <c r="M21">
-        <v>0.9727735341833226</v>
+        <v>0.9727735341833215</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9256902524903363</v>
+        <v>0.9256902524903353</v>
       </c>
       <c r="D22">
-        <v>0.9608228583909533</v>
+        <v>0.9608228583909524</v>
       </c>
       <c r="E22">
-        <v>0.939775426477242</v>
+        <v>0.9397754264772413</v>
       </c>
       <c r="F22">
-        <v>0.948243814022571</v>
+        <v>0.9482438140225699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017721485325301</v>
+        <v>1.0177214853253</v>
       </c>
       <c r="J22">
-        <v>0.9600777093658364</v>
+        <v>0.9600777093658356</v>
       </c>
       <c r="K22">
-        <v>0.9772125308954364</v>
+        <v>0.9772125308954356</v>
       </c>
       <c r="L22">
-        <v>0.9566424189152327</v>
+        <v>0.9566424189152321</v>
       </c>
       <c r="M22">
-        <v>0.9649153564287325</v>
+        <v>0.9649153564287314</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9306191420386326</v>
+        <v>0.9306191420386356</v>
       </c>
       <c r="D23">
-        <v>0.9646766253293613</v>
+        <v>0.9646766253293639</v>
       </c>
       <c r="E23">
-        <v>0.9440271406062907</v>
+        <v>0.9440271406062934</v>
       </c>
       <c r="F23">
-        <v>0.9528976537270148</v>
+        <v>0.9528976537270173</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019630531574403</v>
+        <v>1.019630531574405</v>
       </c>
       <c r="J23">
-        <v>0.9639931078560789</v>
+        <v>0.9639931078560818</v>
       </c>
       <c r="K23">
-        <v>0.98065197865641</v>
+        <v>0.9806519786564127</v>
       </c>
       <c r="L23">
-        <v>0.9604546144199653</v>
+        <v>0.9604546144199682</v>
       </c>
       <c r="M23">
-        <v>0.9691277156403395</v>
+        <v>0.9691277156403418</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9488585201270221</v>
+        <v>0.9488585201270219</v>
       </c>
       <c r="D24">
-        <v>0.9789702140375712</v>
+        <v>0.9789702140375711</v>
       </c>
       <c r="E24">
-        <v>0.9597796552939515</v>
+        <v>0.959779655293951</v>
       </c>
       <c r="F24">
-        <v>0.970172413041229</v>
+        <v>0.9701724130412286</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026668123059894</v>
       </c>
       <c r="J24">
-        <v>0.9784779979377966</v>
+        <v>0.9784779979377963</v>
       </c>
       <c r="K24">
-        <v>0.9933769831137663</v>
+        <v>0.9933769831137658</v>
       </c>
       <c r="L24">
-        <v>0.9745519240960118</v>
+        <v>0.9745519240960113</v>
       </c>
       <c r="M24">
-        <v>0.9847443960964329</v>
+        <v>0.9847443960964327</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9680509800269307</v>
+        <v>0.9680509800269292</v>
       </c>
       <c r="D25">
-        <v>0.9940596218199186</v>
+        <v>0.9940596218199172</v>
       </c>
       <c r="E25">
-        <v>0.9763815618153401</v>
+        <v>0.9763815618153389</v>
       </c>
       <c r="F25">
-        <v>0.9884394243567758</v>
+        <v>0.9884394243567749</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034012265592265</v>
       </c>
       <c r="J25">
-        <v>0.9937035599282095</v>
+        <v>0.993703559928208</v>
       </c>
       <c r="K25">
-        <v>1.006750859815024</v>
+        <v>1.006750859815022</v>
       </c>
       <c r="L25">
-        <v>0.9893579336888991</v>
+        <v>0.9893579336888981</v>
       </c>
       <c r="M25">
-        <v>1.001219894132484</v>
+        <v>1.001219894132483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9821011986163728</v>
+        <v>0.9821011986163717</v>
       </c>
       <c r="D2">
-        <v>1.005132296467481</v>
+        <v>1.00513229646748</v>
       </c>
       <c r="E2">
-        <v>0.9885473015281764</v>
+        <v>0.9885473015281755</v>
       </c>
       <c r="F2">
-        <v>1.001870517439676</v>
+        <v>1.001870517439675</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039334372874467</v>
       </c>
       <c r="J2">
-        <v>1.004830764919578</v>
+        <v>1.004830764919577</v>
       </c>
       <c r="K2">
-        <v>1.016520590338412</v>
+        <v>1.016520590338411</v>
       </c>
       <c r="L2">
         <v>1.000168530673502</v>
       </c>
       <c r="M2">
-        <v>1.013303854350595</v>
+        <v>1.013303854350594</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916992344549188</v>
+        <v>0.991699234454919</v>
       </c>
       <c r="D3">
         <v>1.012706517928153</v>
@@ -486,7 +486,7 @@
         <v>1.007534781995005</v>
       </c>
       <c r="M3">
-        <v>1.021567569167054</v>
+        <v>1.021567569167053</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9976639645882734</v>
+        <v>0.9976639645882723</v>
       </c>
       <c r="D4">
-        <v>1.017416937349269</v>
+        <v>1.017416937349268</v>
       </c>
       <c r="E4">
-        <v>1.002029292548342</v>
+        <v>1.002029292548341</v>
       </c>
       <c r="F4">
-        <v>1.016806315503994</v>
+        <v>1.016806315503993</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045158846390692</v>
       </c>
       <c r="J4">
-        <v>1.017127615744563</v>
+        <v>1.017127615744562</v>
       </c>
       <c r="K4">
         <v>1.027309603420578</v>
       </c>
       <c r="L4">
-        <v>1.012103287344458</v>
+        <v>1.012103287344457</v>
       </c>
       <c r="M4">
-        <v>1.026706047923184</v>
+        <v>1.026706047923183</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046068857600007</v>
+        <v>1.046068857600008</v>
       </c>
       <c r="J5">
         <v>1.019062463761164</v>
@@ -559,7 +559,7 @@
         <v>1.029006199383977</v>
       </c>
       <c r="L5">
-        <v>1.013979815510322</v>
+        <v>1.013979815510321</v>
       </c>
       <c r="M5">
         <v>1.028819855211405</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000525806909039</v>
+        <v>1.000525806909037</v>
       </c>
       <c r="D6">
-        <v>1.019677748939911</v>
+        <v>1.019677748939909</v>
       </c>
       <c r="E6">
-        <v>1.004508808556829</v>
+        <v>1.004508808556828</v>
       </c>
       <c r="F6">
-        <v>1.019559765074755</v>
+        <v>1.019559765074753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046220273888945</v>
+        <v>1.046220273888944</v>
       </c>
       <c r="J6">
-        <v>1.019384800629327</v>
+        <v>1.019384800629325</v>
       </c>
       <c r="K6">
-        <v>1.029288813440532</v>
+        <v>1.02928881344053</v>
       </c>
       <c r="L6">
-        <v>1.014292397903673</v>
+        <v>1.014292397903671</v>
       </c>
       <c r="M6">
-        <v>1.029172147086898</v>
+        <v>1.029172147086897</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976969512145998</v>
+        <v>0.9976969512145991</v>
       </c>
       <c r="D7">
-        <v>1.017442993577258</v>
+        <v>1.017442993577257</v>
       </c>
       <c r="E7">
-        <v>1.00205787220408</v>
+        <v>1.002057872204079</v>
       </c>
       <c r="F7">
         <v>1.016838040351769</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045171099333648</v>
+        <v>1.045171099333647</v>
       </c>
       <c r="J7">
-        <v>1.017153640914869</v>
+        <v>1.017153640914868</v>
       </c>
       <c r="K7">
         <v>1.027332425992123</v>
@@ -638,7 +638,7 @@
         <v>1.012128530673364</v>
       </c>
       <c r="M7">
-        <v>1.026734470681434</v>
+        <v>1.026734470681433</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853985763839945</v>
+        <v>0.9853985763839955</v>
       </c>
       <c r="D8">
-        <v>1.0077335631391</v>
+        <v>1.007733563139101</v>
       </c>
       <c r="E8">
-        <v>0.9914034114597849</v>
+        <v>0.9914034114597855</v>
       </c>
       <c r="F8">
-        <v>1.005029835147982</v>
+        <v>1.005029835147983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040575234919482</v>
+        <v>1.040575234919483</v>
       </c>
       <c r="J8">
-        <v>1.007438983193239</v>
+        <v>1.00743898319324</v>
       </c>
       <c r="K8">
-        <v>1.018809787577003</v>
+        <v>1.018809787577004</v>
       </c>
       <c r="L8">
-        <v>1.002701102078129</v>
+        <v>1.00270110207813</v>
       </c>
       <c r="M8">
-        <v>1.016142102465488</v>
+        <v>1.016142102465489</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9616178695133492</v>
+        <v>0.9616178695133486</v>
       </c>
       <c r="D9">
-        <v>0.9889968008033034</v>
+        <v>0.9889968008033029</v>
       </c>
       <c r="E9">
-        <v>0.9708143020153051</v>
+        <v>0.9708143020153046</v>
       </c>
       <c r="F9">
-        <v>0.9823063002255791</v>
+        <v>0.9823063002255792</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031559016673148</v>
       </c>
       <c r="J9">
-        <v>0.9886028090837048</v>
+        <v>0.9886028090837042</v>
       </c>
       <c r="K9">
-        <v>1.002270956037094</v>
+        <v>1.002270956037093</v>
       </c>
       <c r="L9">
-        <v>0.9843993372359244</v>
+        <v>0.984399337235924</v>
       </c>
       <c r="M9">
-        <v>0.9956931202854261</v>
+        <v>0.995693120285426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.943964559306752</v>
+        <v>0.9439645593067535</v>
       </c>
       <c r="D10">
-        <v>0.9751301825192291</v>
+        <v>0.9751301825192304</v>
       </c>
       <c r="E10">
-        <v>0.9555502594663702</v>
+        <v>0.9555502594663716</v>
       </c>
       <c r="F10">
-        <v>0.9655291045590301</v>
+        <v>0.9655291045590311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024784526165597</v>
+        <v>1.024784526165598</v>
       </c>
       <c r="J10">
-        <v>0.974592409664399</v>
+        <v>0.9745924096644004</v>
       </c>
       <c r="K10">
-        <v>0.9899634721755626</v>
+        <v>0.9899634721755639</v>
       </c>
       <c r="L10">
-        <v>0.9707712855773082</v>
+        <v>0.9707712855773095</v>
       </c>
       <c r="M10">
-        <v>0.9805499404697394</v>
+        <v>0.9805499404697401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9357834604012704</v>
+        <v>0.9357834604012737</v>
       </c>
       <c r="D11">
-        <v>0.9687186477084709</v>
+        <v>0.9687186477084739</v>
       </c>
       <c r="E11">
-        <v>0.9484844185748339</v>
+        <v>0.948484418574837</v>
       </c>
       <c r="F11">
-        <v>0.9577803790238458</v>
+        <v>0.9577803790238493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021627770919888</v>
+        <v>1.02162777091989</v>
       </c>
       <c r="J11">
-        <v>0.9680952198400696</v>
+        <v>0.9680952198400726</v>
       </c>
       <c r="K11">
-        <v>0.9842556199381434</v>
+        <v>0.9842556199381464</v>
       </c>
       <c r="L11">
-        <v>0.9644479371630336</v>
+        <v>0.9644479371630367</v>
       </c>
       <c r="M11">
-        <v>0.9735449725575105</v>
+        <v>0.9735449725575138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9326520374308279</v>
+        <v>0.9326520374308251</v>
       </c>
       <c r="D12">
-        <v>0.9662672361590516</v>
+        <v>0.9662672361590497</v>
       </c>
       <c r="E12">
-        <v>0.9457814205039591</v>
+        <v>0.9457814205039564</v>
       </c>
       <c r="F12">
-        <v>0.9548188991755845</v>
+        <v>0.9548188991755828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02041711528114</v>
+        <v>1.020417115281139</v>
       </c>
       <c r="J12">
-        <v>0.9656079232765463</v>
+        <v>0.9656079232765439</v>
       </c>
       <c r="K12">
-        <v>0.9820705514716561</v>
+        <v>0.982070551471654</v>
       </c>
       <c r="L12">
-        <v>0.9620266887307196</v>
+        <v>0.9620266887307173</v>
       </c>
       <c r="M12">
-        <v>0.9708660937148789</v>
+        <v>0.9708660937148771</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9333281483971452</v>
+        <v>0.933328148397147</v>
       </c>
       <c r="D13">
-        <v>0.9667963949532368</v>
+        <v>0.9667963949532382</v>
       </c>
       <c r="E13">
-        <v>0.946364953631037</v>
+        <v>0.9463649536310388</v>
       </c>
       <c r="F13">
-        <v>0.9554581082714279</v>
+        <v>0.9554581082714295</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02067861258087</v>
       </c>
       <c r="J13">
-        <v>0.9661449740031762</v>
+        <v>0.9661449740031779</v>
       </c>
       <c r="K13">
-        <v>0.9825423418087178</v>
+        <v>0.9825423418087194</v>
       </c>
       <c r="L13">
-        <v>0.962549500808515</v>
+        <v>0.9625495008085166</v>
       </c>
       <c r="M13">
-        <v>0.9714443807019039</v>
+        <v>0.9714443807019055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9355265831718206</v>
+        <v>0.9355265831718199</v>
       </c>
       <c r="D14">
-        <v>0.9685174958925727</v>
+        <v>0.9685174958925719</v>
       </c>
       <c r="E14">
-        <v>0.948262652510221</v>
+        <v>0.9482626525102203</v>
       </c>
       <c r="F14">
-        <v>0.9575373496324605</v>
+        <v>0.95753734963246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021528504645798</v>
+        <v>1.021528504645797</v>
       </c>
       <c r="J14">
-        <v>0.9678911884395142</v>
+        <v>0.9678911884395134</v>
       </c>
       <c r="K14">
-        <v>0.9840763784723849</v>
+        <v>0.9840763784723844</v>
       </c>
       <c r="L14">
-        <v>0.9642493336820609</v>
+        <v>0.96424933368206</v>
       </c>
       <c r="M14">
-        <v>0.9733251679244654</v>
+        <v>0.9733251679244649</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368684408843534</v>
+        <v>0.9368684408843528</v>
       </c>
       <c r="D15">
-        <v>0.9695683707781677</v>
+        <v>0.9695683707781674</v>
       </c>
       <c r="E15">
-        <v>0.9494211636387514</v>
+        <v>0.9494211636387511</v>
       </c>
       <c r="F15">
-        <v>0.9588070529431894</v>
+        <v>0.9588070529431885</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022046950752009</v>
       </c>
       <c r="J15">
-        <v>0.9689569785992507</v>
+        <v>0.9689569785992501</v>
       </c>
       <c r="K15">
-        <v>0.9850126771407812</v>
+        <v>0.985012677140781</v>
       </c>
       <c r="L15">
-        <v>0.9652867500298311</v>
+        <v>0.9652867500298308</v>
       </c>
       <c r="M15">
-        <v>0.9744734667700869</v>
+        <v>0.9744734667700865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444952364976145</v>
+        <v>0.9444952364976125</v>
       </c>
       <c r="D16">
-        <v>0.975546413646599</v>
+        <v>0.9755464136465968</v>
       </c>
       <c r="E16">
-        <v>0.9560087849201354</v>
+        <v>0.9560087849201335</v>
       </c>
       <c r="F16">
-        <v>0.9660323135259089</v>
+        <v>0.9660323135259063</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024988957595995</v>
+        <v>1.024988957595994</v>
       </c>
       <c r="J16">
-        <v>0.9750137880966975</v>
+        <v>0.9750137880966956</v>
       </c>
       <c r="K16">
-        <v>0.9903336584062208</v>
+        <v>0.9903336584062188</v>
       </c>
       <c r="L16">
-        <v>0.9711813197735885</v>
+        <v>0.9711813197735866</v>
       </c>
       <c r="M16">
-        <v>0.9810046239231119</v>
+        <v>0.9810046239231097</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9491278836912447</v>
+        <v>0.9491278836912455</v>
       </c>
       <c r="D17">
-        <v>0.9791816658934541</v>
+        <v>0.9791816658934549</v>
       </c>
       <c r="E17">
-        <v>0.9600124937015003</v>
+        <v>0.9600124937015009</v>
       </c>
       <c r="F17">
-        <v>0.9704281539766729</v>
+        <v>0.9704281539766733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026771682667212</v>
+        <v>1.026771682667213</v>
       </c>
       <c r="J17">
-        <v>0.9786918320971808</v>
+        <v>0.9786918320971815</v>
       </c>
       <c r="K17">
-        <v>0.993564835134104</v>
+        <v>0.9935648351341045</v>
       </c>
       <c r="L17">
-        <v>0.9747599597497444</v>
+        <v>0.9747599597497451</v>
       </c>
       <c r="M17">
-        <v>0.9849753433627237</v>
+        <v>0.9849753433627243</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517791293074425</v>
+        <v>0.9517791293074442</v>
       </c>
       <c r="D18">
-        <v>0.9812634320940911</v>
+        <v>0.9812634320940925</v>
       </c>
       <c r="E18">
-        <v>0.9623045157515918</v>
+        <v>0.9623045157515935</v>
       </c>
       <c r="F18">
-        <v>0.9729462807376673</v>
+        <v>0.9729462807376685</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027790316702253</v>
+        <v>1.027790316702254</v>
       </c>
       <c r="J18">
-        <v>0.9807963439417109</v>
+        <v>0.9807963439417123</v>
       </c>
       <c r="K18">
-        <v>0.9954136154194317</v>
+        <v>0.9954136154194331</v>
       </c>
       <c r="L18">
-        <v>0.9768072719094386</v>
+        <v>0.9768072719094402</v>
       </c>
       <c r="M18">
-        <v>0.9872489294264601</v>
+        <v>0.9872489294264617</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526748238716174</v>
+        <v>0.9526748238716201</v>
       </c>
       <c r="D19">
-        <v>0.9819669464946903</v>
+        <v>0.981966946494693</v>
       </c>
       <c r="E19">
-        <v>0.9630789629352532</v>
+        <v>0.963078962935256</v>
       </c>
       <c r="F19">
-        <v>0.973797397754856</v>
+        <v>0.9737973977548585</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028134171725625</v>
+        <v>1.028134171725627</v>
       </c>
       <c r="J19">
-        <v>0.9815072532788385</v>
+        <v>0.9815072532788413</v>
       </c>
       <c r="K19">
-        <v>0.9960381281009039</v>
+        <v>0.9960381281009063</v>
       </c>
       <c r="L19">
-        <v>0.9774988039179715</v>
+        <v>0.9774988039179739</v>
       </c>
       <c r="M19">
-        <v>0.9880172211454934</v>
+        <v>0.9880172211454962</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9486361872526387</v>
+        <v>0.948636187252639</v>
       </c>
       <c r="D20">
-        <v>0.9787956890033171</v>
+        <v>0.9787956890033173</v>
       </c>
       <c r="E20">
-        <v>0.959587474332428</v>
+        <v>0.9595874743324279</v>
       </c>
       <c r="F20">
-        <v>0.9699613379038784</v>
+        <v>0.9699613379038783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026582635689864</v>
+        <v>1.026582635689865</v>
       </c>
       <c r="J20">
-        <v>0.9783014966643704</v>
+        <v>0.9783014966643706</v>
       </c>
       <c r="K20">
-        <v>0.9932219275562304</v>
+        <v>0.9932219275562307</v>
       </c>
       <c r="L20">
-        <v>0.9743802071425808</v>
+        <v>0.9743802071425807</v>
       </c>
       <c r="M20">
-        <v>0.9845537785954103</v>
+        <v>0.9845537785954099</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.934881863813101</v>
+        <v>0.9348818638131027</v>
       </c>
       <c r="D21">
-        <v>0.9680126829804845</v>
+        <v>0.9680126829804856</v>
       </c>
       <c r="E21">
-        <v>0.9477060824333353</v>
+        <v>0.9477060824333369</v>
       </c>
       <c r="F21">
-        <v>0.9569274591690388</v>
+        <v>0.95692745916904</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02127932561936</v>
+        <v>1.021279325619361</v>
       </c>
       <c r="J21">
-        <v>0.9673790976633818</v>
+        <v>0.9673790976633836</v>
       </c>
       <c r="K21">
-        <v>0.9836265081950972</v>
+        <v>0.9836265081950983</v>
       </c>
       <c r="L21">
-        <v>0.9637508582482428</v>
+        <v>0.9637508582482444</v>
       </c>
       <c r="M21">
-        <v>0.9727735341833215</v>
+        <v>0.9727735341833226</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9256902524903353</v>
+        <v>0.9256902524903363</v>
       </c>
       <c r="D22">
-        <v>0.9608228583909524</v>
+        <v>0.9608228583909533</v>
       </c>
       <c r="E22">
-        <v>0.9397754264772413</v>
+        <v>0.939775426477242</v>
       </c>
       <c r="F22">
-        <v>0.9482438140225699</v>
+        <v>0.948243814022571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0177214853253</v>
+        <v>1.017721485325301</v>
       </c>
       <c r="J22">
-        <v>0.9600777093658356</v>
+        <v>0.9600777093658364</v>
       </c>
       <c r="K22">
-        <v>0.9772125308954356</v>
+        <v>0.9772125308954364</v>
       </c>
       <c r="L22">
-        <v>0.9566424189152321</v>
+        <v>0.9566424189152327</v>
       </c>
       <c r="M22">
-        <v>0.9649153564287314</v>
+        <v>0.9649153564287325</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9306191420386356</v>
+        <v>0.9306191420386326</v>
       </c>
       <c r="D23">
-        <v>0.9646766253293639</v>
+        <v>0.9646766253293613</v>
       </c>
       <c r="E23">
-        <v>0.9440271406062934</v>
+        <v>0.9440271406062907</v>
       </c>
       <c r="F23">
-        <v>0.9528976537270173</v>
+        <v>0.9528976537270148</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019630531574405</v>
+        <v>1.019630531574403</v>
       </c>
       <c r="J23">
-        <v>0.9639931078560818</v>
+        <v>0.9639931078560789</v>
       </c>
       <c r="K23">
-        <v>0.9806519786564127</v>
+        <v>0.98065197865641</v>
       </c>
       <c r="L23">
-        <v>0.9604546144199682</v>
+        <v>0.9604546144199653</v>
       </c>
       <c r="M23">
-        <v>0.9691277156403418</v>
+        <v>0.9691277156403395</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9488585201270219</v>
+        <v>0.9488585201270221</v>
       </c>
       <c r="D24">
-        <v>0.9789702140375711</v>
+        <v>0.9789702140375712</v>
       </c>
       <c r="E24">
-        <v>0.959779655293951</v>
+        <v>0.9597796552939515</v>
       </c>
       <c r="F24">
-        <v>0.9701724130412286</v>
+        <v>0.970172413041229</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026668123059894</v>
       </c>
       <c r="J24">
-        <v>0.9784779979377963</v>
+        <v>0.9784779979377966</v>
       </c>
       <c r="K24">
-        <v>0.9933769831137658</v>
+        <v>0.9933769831137663</v>
       </c>
       <c r="L24">
-        <v>0.9745519240960113</v>
+        <v>0.9745519240960118</v>
       </c>
       <c r="M24">
-        <v>0.9847443960964327</v>
+        <v>0.9847443960964329</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9680509800269292</v>
+        <v>0.9680509800269307</v>
       </c>
       <c r="D25">
-        <v>0.9940596218199172</v>
+        <v>0.9940596218199186</v>
       </c>
       <c r="E25">
-        <v>0.9763815618153389</v>
+        <v>0.9763815618153401</v>
       </c>
       <c r="F25">
-        <v>0.9884394243567749</v>
+        <v>0.9884394243567758</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034012265592265</v>
       </c>
       <c r="J25">
-        <v>0.993703559928208</v>
+        <v>0.9937035599282095</v>
       </c>
       <c r="K25">
-        <v>1.006750859815022</v>
+        <v>1.006750859815024</v>
       </c>
       <c r="L25">
-        <v>0.9893579336888981</v>
+        <v>0.9893579336888991</v>
       </c>
       <c r="M25">
-        <v>1.001219894132483</v>
+        <v>1.001219894132484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9821011986163717</v>
+        <v>0.9848663540292114</v>
       </c>
       <c r="D2">
-        <v>1.00513229646748</v>
+        <v>1.00733279272669</v>
       </c>
       <c r="E2">
-        <v>0.9885473015281755</v>
+        <v>0.9909324904513362</v>
       </c>
       <c r="F2">
-        <v>1.001870517439675</v>
+        <v>1.00378517883858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039334372874467</v>
+        <v>1.040493466675867</v>
       </c>
       <c r="J2">
-        <v>1.004830764919577</v>
+        <v>1.007509327866174</v>
       </c>
       <c r="K2">
-        <v>1.016520590338411</v>
+        <v>1.01869090669623</v>
       </c>
       <c r="L2">
-        <v>1.000168530673502</v>
+        <v>1.002519612430936</v>
       </c>
       <c r="M2">
-        <v>1.013303854350594</v>
+        <v>1.015192030794848</v>
+      </c>
+      <c r="N2">
+        <v>1.008940106674679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.991699234454919</v>
+        <v>0.9944378689982559</v>
       </c>
       <c r="D3">
-        <v>1.012706517928153</v>
+        <v>1.014888896537046</v>
       </c>
       <c r="E3">
-        <v>0.9968615864520743</v>
+        <v>0.9992260663523266</v>
       </c>
       <c r="F3">
-        <v>1.011074453891094</v>
+        <v>1.012963948002512</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042936462644802</v>
+        <v>1.044086970100581</v>
       </c>
       <c r="J3">
-        <v>1.012418773292729</v>
+        <v>1.015081320397015</v>
       </c>
       <c r="K3">
-        <v>1.023179357567611</v>
+        <v>1.025334750640897</v>
       </c>
       <c r="L3">
-        <v>1.007534781995005</v>
+        <v>1.0098688593913</v>
       </c>
       <c r="M3">
-        <v>1.021567569167053</v>
+        <v>1.02343359693697</v>
+      </c>
+      <c r="N3">
+        <v>1.016522852303434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9976639645882723</v>
+        <v>1.000387518220325</v>
       </c>
       <c r="D4">
-        <v>1.017416937349268</v>
+        <v>1.019589068744254</v>
       </c>
       <c r="E4">
-        <v>1.002029292548341</v>
+        <v>1.004382067914573</v>
       </c>
       <c r="F4">
-        <v>1.016806315503993</v>
+        <v>1.018681328043633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045158846390692</v>
+        <v>1.04630457493586</v>
       </c>
       <c r="J4">
-        <v>1.017127615744562</v>
+        <v>1.019781316434131</v>
       </c>
       <c r="K4">
-        <v>1.027309603420578</v>
+        <v>1.029456682805741</v>
       </c>
       <c r="L4">
-        <v>1.012103287344457</v>
+        <v>1.014427891392351</v>
       </c>
       <c r="M4">
-        <v>1.026706047923183</v>
+        <v>1.028559395370978</v>
+      </c>
+      <c r="N4">
+        <v>1.021229522874019</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000117010615918</v>
+        <v>1.002834663861904</v>
       </c>
       <c r="D5">
-        <v>1.01935477790242</v>
+        <v>1.021522914025042</v>
       </c>
       <c r="E5">
-        <v>1.004154624397988</v>
+        <v>1.00650283819133</v>
       </c>
       <c r="F5">
-        <v>1.019166318328907</v>
+        <v>1.021035624930002</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046068857600008</v>
+        <v>1.047212742161412</v>
       </c>
       <c r="J5">
-        <v>1.019062463761164</v>
+        <v>1.021712765829048</v>
       </c>
       <c r="K5">
-        <v>1.029006199383977</v>
+        <v>1.031150067940845</v>
       </c>
       <c r="L5">
-        <v>1.013979815510321</v>
+        <v>1.016300760779547</v>
       </c>
       <c r="M5">
-        <v>1.028819855211405</v>
+        <v>1.030668221935492</v>
+      </c>
+      <c r="N5">
+        <v>1.023163715148617</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000525806909037</v>
+        <v>1.003242493721354</v>
       </c>
       <c r="D6">
-        <v>1.019677748939909</v>
+        <v>1.021845231515693</v>
       </c>
       <c r="E6">
-        <v>1.004508808556828</v>
+        <v>1.006856276276515</v>
       </c>
       <c r="F6">
-        <v>1.019559765074753</v>
+        <v>1.021428134742043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046220273888944</v>
+        <v>1.047363857973572</v>
       </c>
       <c r="J6">
-        <v>1.019384800629325</v>
+        <v>1.022034549734739</v>
       </c>
       <c r="K6">
-        <v>1.02928881344053</v>
+        <v>1.031432158588801</v>
       </c>
       <c r="L6">
-        <v>1.014292397903671</v>
+        <v>1.016612746737045</v>
       </c>
       <c r="M6">
-        <v>1.029172147086897</v>
+        <v>1.031019696879129</v>
+      </c>
+      <c r="N6">
+        <v>1.023485956024364</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9976969512145991</v>
+        <v>1.000420424347663</v>
       </c>
       <c r="D7">
-        <v>1.017442993577257</v>
+        <v>1.019615070407403</v>
       </c>
       <c r="E7">
-        <v>1.002057872204079</v>
+        <v>1.004410585263793</v>
       </c>
       <c r="F7">
-        <v>1.016838040351769</v>
+        <v>1.018712975206308</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045171099333647</v>
+        <v>1.046316802615847</v>
       </c>
       <c r="J7">
-        <v>1.017153640914868</v>
+        <v>1.019807294983943</v>
       </c>
       <c r="K7">
-        <v>1.027332425992123</v>
+        <v>1.029479461401596</v>
       </c>
       <c r="L7">
-        <v>1.012128530673364</v>
+        <v>1.014453084610758</v>
       </c>
       <c r="M7">
-        <v>1.026734470681433</v>
+        <v>1.028587750255116</v>
+      </c>
+      <c r="N7">
+        <v>1.021255538316352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853985763839955</v>
+        <v>0.988154299852915</v>
       </c>
       <c r="D8">
-        <v>1.007733563139101</v>
+        <v>1.009927603961228</v>
       </c>
       <c r="E8">
-        <v>0.9914034114597855</v>
+        <v>0.9937812196640925</v>
       </c>
       <c r="F8">
-        <v>1.005029835147983</v>
+        <v>1.006935585061684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040575234919483</v>
+        <v>1.041731252216368</v>
       </c>
       <c r="J8">
-        <v>1.00743898319324</v>
+        <v>1.01011179121805</v>
       </c>
       <c r="K8">
-        <v>1.018809787577004</v>
+        <v>1.02097475799472</v>
       </c>
       <c r="L8">
-        <v>1.00270110207813</v>
+        <v>1.005046092469668</v>
       </c>
       <c r="M8">
-        <v>1.016142102465489</v>
+        <v>1.018022421916782</v>
+      </c>
+      <c r="N8">
+        <v>1.011546265823021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9616178695133486</v>
+        <v>0.9644496469731564</v>
       </c>
       <c r="D9">
-        <v>0.9889968008033029</v>
+        <v>0.99124315122245</v>
       </c>
       <c r="E9">
-        <v>0.9708143020153046</v>
+        <v>0.9732519664235241</v>
       </c>
       <c r="F9">
-        <v>0.9823063002255792</v>
+        <v>0.9842829599640899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031559016673148</v>
+        <v>1.032740344654721</v>
       </c>
       <c r="J9">
-        <v>0.9886028090837042</v>
+        <v>0.9913234076926556</v>
       </c>
       <c r="K9">
-        <v>1.002270956037093</v>
+        <v>1.004479918115931</v>
       </c>
       <c r="L9">
-        <v>0.984399337235924</v>
+        <v>0.9867944501903467</v>
       </c>
       <c r="M9">
-        <v>0.995693120285426</v>
+        <v>0.9976362883439994</v>
+      </c>
+      <c r="N9">
+        <v>0.9927312006379632</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9439645593067535</v>
+        <v>0.9468660678427643</v>
       </c>
       <c r="D10">
-        <v>0.9751301825192304</v>
+        <v>0.9774248110606436</v>
       </c>
       <c r="E10">
-        <v>0.9555502594663716</v>
+        <v>0.9580432392047937</v>
       </c>
       <c r="F10">
-        <v>0.9655291045590311</v>
+        <v>0.9675693732271982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024784526165598</v>
+        <v>1.025989720475775</v>
       </c>
       <c r="J10">
-        <v>0.9745924096644004</v>
+        <v>0.9773588011706199</v>
       </c>
       <c r="K10">
-        <v>0.9899634721755639</v>
+        <v>0.9922139917596335</v>
       </c>
       <c r="L10">
-        <v>0.9707712855773095</v>
+        <v>0.9732137378819226</v>
       </c>
       <c r="M10">
-        <v>0.9805499404697401</v>
+        <v>0.9825499458813101</v>
+      </c>
+      <c r="N10">
+        <v>0.978746762772904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9357834604012737</v>
+        <v>0.9387216762642002</v>
       </c>
       <c r="D11">
-        <v>0.9687186477084739</v>
+        <v>0.9710387538380535</v>
       </c>
       <c r="E11">
-        <v>0.948484418574837</v>
+        <v>0.9510066080711532</v>
       </c>
       <c r="F11">
-        <v>0.9577803790238493</v>
+        <v>0.9598537537211315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02162777091989</v>
+        <v>1.022845677160446</v>
       </c>
       <c r="J11">
-        <v>0.9680952198400726</v>
+        <v>0.9708862207817452</v>
       </c>
       <c r="K11">
-        <v>0.9842556199381464</v>
+        <v>0.9865283143573171</v>
       </c>
       <c r="L11">
-        <v>0.9644479371630367</v>
+        <v>0.9669156441806283</v>
       </c>
       <c r="M11">
-        <v>0.9735449725575138</v>
+        <v>0.9755746739905443</v>
+      </c>
+      <c r="N11">
+        <v>0.9722649905774613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9326520374308251</v>
+        <v>0.9356051066426511</v>
       </c>
       <c r="D12">
-        <v>0.9662672361590497</v>
+        <v>0.9685976598771368</v>
       </c>
       <c r="E12">
-        <v>0.9457814205039564</v>
+        <v>0.9483154417966052</v>
       </c>
       <c r="F12">
-        <v>0.9548188991755828</v>
+        <v>0.9569056088331477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020417115281139</v>
+        <v>1.021640186799784</v>
       </c>
       <c r="J12">
-        <v>0.9656079232765439</v>
+        <v>0.9684089610106537</v>
       </c>
       <c r="K12">
-        <v>0.982070551471654</v>
+        <v>0.9843522642757562</v>
       </c>
       <c r="L12">
-        <v>0.9620266887307173</v>
+        <v>0.9645046655270493</v>
       </c>
       <c r="M12">
-        <v>0.9708660937148771</v>
+        <v>0.972907774208711</v>
+      </c>
+      <c r="N12">
+        <v>0.9697842128133493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.933328148397147</v>
+        <v>0.9362779716716666</v>
       </c>
       <c r="D13">
-        <v>0.9667963949532382</v>
+        <v>0.9691245635968633</v>
       </c>
       <c r="E13">
-        <v>0.9463649536310388</v>
+        <v>0.9488963887699815</v>
       </c>
       <c r="F13">
-        <v>0.9554581082714295</v>
+        <v>0.9575419066160598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02067861258087</v>
+        <v>1.021900554372034</v>
       </c>
       <c r="J13">
-        <v>0.9661449740031779</v>
+        <v>0.9689438147997357</v>
       </c>
       <c r="K13">
-        <v>0.9825423418087194</v>
+        <v>0.9848220817589399</v>
       </c>
       <c r="L13">
-        <v>0.9625495008085166</v>
+        <v>0.9650252310571115</v>
       </c>
       <c r="M13">
-        <v>0.9714443807019055</v>
+        <v>0.9734834451086479</v>
+      </c>
+      <c r="N13">
+        <v>0.9703198261561604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9355265831718199</v>
+        <v>0.9384660002946766</v>
       </c>
       <c r="D14">
-        <v>0.9685174958925719</v>
+        <v>0.9708384362975343</v>
       </c>
       <c r="E14">
-        <v>0.9482626525102203</v>
+        <v>0.9507857986645842</v>
       </c>
       <c r="F14">
-        <v>0.95753734963246</v>
+        <v>0.9596118040299926</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021528504645797</v>
+        <v>1.022746828204903</v>
       </c>
       <c r="J14">
-        <v>0.9678911884395134</v>
+        <v>0.9706829995219101</v>
       </c>
       <c r="K14">
-        <v>0.9840763784723844</v>
+        <v>0.9863498013437331</v>
       </c>
       <c r="L14">
-        <v>0.96424933368206</v>
+        <v>0.9667178702579583</v>
       </c>
       <c r="M14">
-        <v>0.9733251679244649</v>
+        <v>0.9753558389205372</v>
+      </c>
+      <c r="N14">
+        <v>0.9720614807201274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368684408843528</v>
+        <v>0.9398016163874533</v>
       </c>
       <c r="D15">
-        <v>0.9695683707781674</v>
+        <v>0.9718849766955807</v>
       </c>
       <c r="E15">
-        <v>0.9494211636387511</v>
+        <v>0.951939339575698</v>
       </c>
       <c r="F15">
-        <v>0.9588070529431885</v>
+        <v>0.9608758948880515</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022046950752009</v>
+        <v>1.023263106812902</v>
       </c>
       <c r="J15">
-        <v>0.9689569785992501</v>
+        <v>0.9717445834093917</v>
       </c>
       <c r="K15">
-        <v>0.985012677140781</v>
+        <v>0.9872823168547163</v>
       </c>
       <c r="L15">
-        <v>0.9652867500298308</v>
+        <v>0.9677509783128838</v>
       </c>
       <c r="M15">
-        <v>0.9744734667700865</v>
+        <v>0.9764990985255344</v>
+      </c>
+      <c r="N15">
+        <v>0.9731245721784947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444952364976125</v>
+        <v>0.9473944649614323</v>
       </c>
       <c r="D16">
-        <v>0.9755464136465968</v>
+        <v>0.97783946078635</v>
       </c>
       <c r="E16">
-        <v>0.9560087849201335</v>
+        <v>0.9584999519619311</v>
       </c>
       <c r="F16">
-        <v>0.9660323135259063</v>
+        <v>0.9680705181377967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024988957595994</v>
+        <v>1.026193365125592</v>
       </c>
       <c r="J16">
-        <v>0.9750137880966956</v>
+        <v>0.9777786610090149</v>
       </c>
       <c r="K16">
-        <v>0.9903336584062188</v>
+        <v>0.9925828064501161</v>
       </c>
       <c r="L16">
-        <v>0.9711813197735866</v>
+        <v>0.9736222099143272</v>
       </c>
       <c r="M16">
-        <v>0.9810046239231097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9830027801475774</v>
+      </c>
+      <c r="N16">
+        <v>0.9791672188604278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9491278836912455</v>
+        <v>0.9520077095091573</v>
       </c>
       <c r="D17">
-        <v>0.9791816658934549</v>
+        <v>0.9814612623021109</v>
       </c>
       <c r="E17">
-        <v>0.9600124937015009</v>
+        <v>0.9624882446430874</v>
       </c>
       <c r="F17">
-        <v>0.9704281539766733</v>
+        <v>0.9724487543964383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026771682667213</v>
+        <v>1.027969410293464</v>
       </c>
       <c r="J17">
-        <v>0.9786918320971815</v>
+        <v>0.9814438349341748</v>
       </c>
       <c r="K17">
-        <v>0.9935648351341045</v>
+        <v>0.9958023429171458</v>
       </c>
       <c r="L17">
-        <v>0.9747599597497451</v>
+        <v>0.9771875912314367</v>
       </c>
       <c r="M17">
-        <v>0.9849753433627243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9869577399994602</v>
+      </c>
+      <c r="N17">
+        <v>0.9828375977529628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517791293074442</v>
+        <v>0.9546482468401645</v>
       </c>
       <c r="D18">
-        <v>0.9812634320940925</v>
+        <v>0.9835356105746035</v>
       </c>
       <c r="E18">
-        <v>0.9623045157515935</v>
+        <v>0.9647717664662265</v>
       </c>
       <c r="F18">
-        <v>0.9729462807376685</v>
+        <v>0.9749571332788404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027790316702254</v>
+        <v>1.028984370458563</v>
       </c>
       <c r="J18">
-        <v>0.9807963439417123</v>
+        <v>0.9835412867403956</v>
       </c>
       <c r="K18">
-        <v>0.9954136154194331</v>
+        <v>0.9976447244840227</v>
       </c>
       <c r="L18">
-        <v>0.9768072719094402</v>
+        <v>0.9792276146077524</v>
       </c>
       <c r="M18">
-        <v>0.9872489294264617</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9892226094192712</v>
+      </c>
+      <c r="N18">
+        <v>0.9849380281813294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526748238716201</v>
+        <v>0.9555403872979387</v>
       </c>
       <c r="D19">
-        <v>0.981966946494693</v>
+        <v>0.9842366639115041</v>
       </c>
       <c r="E19">
-        <v>0.963078962935256</v>
+        <v>0.9655433937757936</v>
       </c>
       <c r="F19">
-        <v>0.9737973977548585</v>
+        <v>0.9758050095995424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028134171725627</v>
+        <v>1.029327008301224</v>
       </c>
       <c r="J19">
-        <v>0.9815072532788413</v>
+        <v>0.98424986004129</v>
       </c>
       <c r="K19">
-        <v>0.9960381281009063</v>
+        <v>0.998267117729624</v>
       </c>
       <c r="L19">
-        <v>0.9774988039179739</v>
+        <v>0.979916732302617</v>
       </c>
       <c r="M19">
-        <v>0.9880172211454962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9899880049343397</v>
+      </c>
+      <c r="N19">
+        <v>0.9856476077375854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.948636187252639</v>
+        <v>0.9515180303010005</v>
       </c>
       <c r="D20">
-        <v>0.9787956890033173</v>
+        <v>0.9810766832670317</v>
       </c>
       <c r="E20">
-        <v>0.9595874743324279</v>
+        <v>0.9620648272109126</v>
       </c>
       <c r="F20">
-        <v>0.9699613379038783</v>
+        <v>0.971983771997565</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026582635689865</v>
+        <v>1.027781056461734</v>
       </c>
       <c r="J20">
-        <v>0.9783014966643706</v>
+        <v>0.9810548330072306</v>
       </c>
       <c r="K20">
-        <v>0.9932219275562307</v>
+        <v>0.9954606428398116</v>
       </c>
       <c r="L20">
-        <v>0.9743802071425807</v>
+        <v>0.9768092140558661</v>
       </c>
       <c r="M20">
-        <v>0.9845537785954099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9865378157298509</v>
+      </c>
+      <c r="N20">
+        <v>0.9824480433986633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9348818638131027</v>
+        <v>0.9378243093358299</v>
       </c>
       <c r="D21">
-        <v>0.9680126829804856</v>
+        <v>0.9703357267363003</v>
       </c>
       <c r="E21">
-        <v>0.9477060824333369</v>
+        <v>0.950231640530422</v>
       </c>
       <c r="F21">
-        <v>0.95692745916904</v>
+        <v>0.9590046345297784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021279325619361</v>
+        <v>1.022498701583748</v>
       </c>
       <c r="J21">
-        <v>0.9673790976633836</v>
+        <v>0.9701729523830389</v>
       </c>
       <c r="K21">
-        <v>0.9836265081950983</v>
+        <v>0.985901768230561</v>
       </c>
       <c r="L21">
-        <v>0.9637508582482444</v>
+        <v>0.9662214869589094</v>
       </c>
       <c r="M21">
-        <v>0.9727735341833226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9748066488655585</v>
+      </c>
+      <c r="N21">
+        <v>0.9715507092558159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9256902524903363</v>
+        <v>0.9286780333838714</v>
       </c>
       <c r="D22">
-        <v>0.9608228583909533</v>
+        <v>0.963177408028829</v>
       </c>
       <c r="E22">
-        <v>0.939775426477242</v>
+        <v>0.9423371197034259</v>
       </c>
       <c r="F22">
-        <v>0.948243814022571</v>
+        <v>0.9503615649574425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017721485325301</v>
+        <v>1.018956667873486</v>
       </c>
       <c r="J22">
-        <v>0.9600777093658364</v>
+        <v>0.9629023566791032</v>
       </c>
       <c r="K22">
-        <v>0.9772125308954364</v>
+        <v>0.9795154068419147</v>
       </c>
       <c r="L22">
-        <v>0.9566424189152327</v>
+        <v>0.9591444926498979</v>
       </c>
       <c r="M22">
-        <v>0.9649153564287325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9669849560357257</v>
+      </c>
+      <c r="N22">
+        <v>0.9642697884720313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9306191420386326</v>
+        <v>0.9335821022827048</v>
       </c>
       <c r="D23">
-        <v>0.9646766253293613</v>
+        <v>0.9670139218268802</v>
       </c>
       <c r="E23">
-        <v>0.9440271406062907</v>
+        <v>0.9465690441168286</v>
       </c>
       <c r="F23">
-        <v>0.9528976537270148</v>
+        <v>0.9549932253844825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019630531574403</v>
+        <v>1.020857048699923</v>
       </c>
       <c r="J23">
-        <v>0.9639931078560789</v>
+        <v>0.9668008519584904</v>
       </c>
       <c r="K23">
-        <v>0.98065197865641</v>
+        <v>0.9829397098995137</v>
       </c>
       <c r="L23">
-        <v>0.9604546144199653</v>
+        <v>0.9629394443826412</v>
       </c>
       <c r="M23">
-        <v>0.9691277156403395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.971177362103532</v>
+      </c>
+      <c r="N23">
+        <v>0.9681738200618792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9488585201270221</v>
+        <v>0.9517394498112656</v>
       </c>
       <c r="D24">
-        <v>0.9789702140375712</v>
+        <v>0.9812505753612328</v>
       </c>
       <c r="E24">
-        <v>0.9597796552939515</v>
+        <v>0.9622562828204024</v>
       </c>
       <c r="F24">
-        <v>0.970172413041229</v>
+        <v>0.9721940169831641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026668123059894</v>
+        <v>1.027866229948027</v>
       </c>
       <c r="J24">
-        <v>0.9784779979377966</v>
+        <v>0.9812307303586377</v>
       </c>
       <c r="K24">
-        <v>0.9933769831137663</v>
+        <v>0.9956151515830807</v>
       </c>
       <c r="L24">
-        <v>0.9745519240960118</v>
+        <v>0.9769803081490928</v>
       </c>
       <c r="M24">
-        <v>0.9847443960964329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.986727690503988</v>
+      </c>
+      <c r="N24">
+        <v>0.9826241905444847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9680509800269307</v>
+        <v>0.9708602825731556</v>
       </c>
       <c r="D25">
-        <v>0.9940596218199186</v>
+        <v>0.9962904632213611</v>
       </c>
       <c r="E25">
-        <v>0.9763815618153401</v>
+        <v>0.9788014693633885</v>
       </c>
       <c r="F25">
-        <v>0.9884394243567758</v>
+        <v>0.9903953302076162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034012265592265</v>
+        <v>1.035186012136715</v>
       </c>
       <c r="J25">
-        <v>0.9937035599282095</v>
+        <v>0.9964097464556754</v>
       </c>
       <c r="K25">
-        <v>1.006750859815024</v>
+        <v>1.008946639215252</v>
       </c>
       <c r="L25">
-        <v>0.9893579336888991</v>
+        <v>0.991738027639229</v>
       </c>
       <c r="M25">
-        <v>1.001219894132484</v>
+        <v>1.003144598881823</v>
+      </c>
+      <c r="N25">
+        <v>0.9978247625854377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848663540292114</v>
+        <v>0.9849947022840316</v>
       </c>
       <c r="D2">
-        <v>1.00733279272669</v>
+        <v>1.005624862240146</v>
       </c>
       <c r="E2">
-        <v>0.9909324904513362</v>
-      </c>
-      <c r="F2">
-        <v>1.00378517883858</v>
+        <v>0.9933429317035841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040493466675867</v>
+        <v>1.036965270236298</v>
       </c>
       <c r="J2">
-        <v>1.007509327866174</v>
+        <v>1.007633673130284</v>
       </c>
       <c r="K2">
-        <v>1.01869090669623</v>
+        <v>1.01700638609483</v>
       </c>
       <c r="L2">
-        <v>1.002519612430936</v>
-      </c>
-      <c r="M2">
-        <v>1.015192030794848</v>
+        <v>1.004895795832982</v>
       </c>
       <c r="N2">
-        <v>1.008940106674679</v>
+        <v>1.009064628523326</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9944378689982559</v>
+        <v>0.9910954556771043</v>
       </c>
       <c r="D3">
-        <v>1.014888896537046</v>
+        <v>1.0100694235956</v>
       </c>
       <c r="E3">
-        <v>0.9992260663523266</v>
-      </c>
-      <c r="F3">
-        <v>1.012963948002512</v>
+        <v>0.9983178245451853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044086970100581</v>
+        <v>1.038367332093143</v>
       </c>
       <c r="J3">
-        <v>1.015081320397015</v>
+        <v>1.011831846538428</v>
       </c>
       <c r="K3">
-        <v>1.025334750640897</v>
+        <v>1.020575065296003</v>
       </c>
       <c r="L3">
-        <v>1.0098688593913</v>
-      </c>
-      <c r="M3">
-        <v>1.02343359693697</v>
+        <v>1.008972274465818</v>
       </c>
       <c r="N3">
-        <v>1.016522852303434</v>
+        <v>1.013268763819248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000387518220325</v>
+        <v>0.9949399093806616</v>
       </c>
       <c r="D4">
-        <v>1.019589068744254</v>
+        <v>1.012872087482388</v>
       </c>
       <c r="E4">
-        <v>1.004382067914573</v>
-      </c>
-      <c r="F4">
-        <v>1.018681328043633</v>
+        <v>1.001459529214729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04630457493586</v>
+        <v>1.039238560938376</v>
       </c>
       <c r="J4">
-        <v>1.019781316434131</v>
+        <v>1.014473944494139</v>
       </c>
       <c r="K4">
-        <v>1.029456682805741</v>
+        <v>1.022817600973537</v>
       </c>
       <c r="L4">
-        <v>1.014427891392351</v>
-      </c>
-      <c r="M4">
-        <v>1.028559395370978</v>
+        <v>1.011540370865635</v>
       </c>
       <c r="N4">
-        <v>1.021229522874019</v>
+        <v>1.015914613857108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002834663861904</v>
+        <v>0.9965325824813834</v>
       </c>
       <c r="D5">
-        <v>1.021522914025042</v>
+        <v>1.014033519585607</v>
       </c>
       <c r="E5">
-        <v>1.00650283819133</v>
-      </c>
-      <c r="F5">
-        <v>1.021035624930002</v>
+        <v>1.002762606993928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047212742161412</v>
+        <v>1.039596481525604</v>
       </c>
       <c r="J5">
-        <v>1.021712765829048</v>
+        <v>1.015567626205583</v>
       </c>
       <c r="K5">
-        <v>1.031150067940845</v>
+        <v>1.023745043333115</v>
       </c>
       <c r="L5">
-        <v>1.016300760779547</v>
-      </c>
-      <c r="M5">
-        <v>1.030668221935492</v>
+        <v>1.012604037420988</v>
       </c>
       <c r="N5">
-        <v>1.023163715148617</v>
+        <v>1.01700984872203</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003242493721354</v>
+        <v>0.996798651338821</v>
       </c>
       <c r="D6">
-        <v>1.021845231515693</v>
+        <v>1.014227563898802</v>
       </c>
       <c r="E6">
-        <v>1.006856276276515</v>
-      </c>
-      <c r="F6">
-        <v>1.021428134742043</v>
+        <v>1.002980384976157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047363857973572</v>
+        <v>1.039656096290983</v>
       </c>
       <c r="J6">
-        <v>1.022034549734739</v>
+        <v>1.015750280997545</v>
       </c>
       <c r="K6">
-        <v>1.031432158588801</v>
+        <v>1.023899884260478</v>
       </c>
       <c r="L6">
-        <v>1.016612746737045</v>
-      </c>
-      <c r="M6">
-        <v>1.031019696879129</v>
+        <v>1.012781715634997</v>
       </c>
       <c r="N6">
-        <v>1.023485956024364</v>
+        <v>1.017192762904747</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000420424347663</v>
+        <v>0.9949612817625315</v>
       </c>
       <c r="D7">
-        <v>1.019615070407403</v>
+        <v>1.012887671705561</v>
       </c>
       <c r="E7">
-        <v>1.004410585263793</v>
-      </c>
-      <c r="F7">
-        <v>1.018712975206308</v>
+        <v>1.001477009474097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046316802615847</v>
+        <v>1.039243375927778</v>
       </c>
       <c r="J7">
-        <v>1.019807294983943</v>
+        <v>1.014488624380457</v>
       </c>
       <c r="K7">
-        <v>1.029479461401596</v>
+        <v>1.022830052892385</v>
       </c>
       <c r="L7">
-        <v>1.014453084610758</v>
-      </c>
-      <c r="M7">
-        <v>1.028587750255116</v>
+        <v>1.011554645436208</v>
       </c>
       <c r="N7">
-        <v>1.021255538316352</v>
+        <v>1.015929314590549</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.988154299852915</v>
+        <v>0.9870785594484585</v>
       </c>
       <c r="D8">
-        <v>1.009927603961228</v>
+        <v>1.007142549077332</v>
       </c>
       <c r="E8">
-        <v>0.9937812196640925</v>
-      </c>
-      <c r="F8">
-        <v>1.006935585061684</v>
+        <v>0.995040761297758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041731252216368</v>
+        <v>1.037446728668592</v>
       </c>
       <c r="J8">
-        <v>1.01011179121805</v>
+        <v>1.009068342363338</v>
       </c>
       <c r="K8">
-        <v>1.02097475799472</v>
+        <v>1.018226631462718</v>
       </c>
       <c r="L8">
-        <v>1.005046092469668</v>
-      </c>
-      <c r="M8">
-        <v>1.018022421916782</v>
+        <v>1.006288330331299</v>
       </c>
       <c r="N8">
-        <v>1.011546265823021</v>
+        <v>1.01050133515125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9644496469731564</v>
+        <v>0.972341690707578</v>
       </c>
       <c r="D9">
-        <v>0.99124315122245</v>
+        <v>0.9964221310934325</v>
       </c>
       <c r="E9">
-        <v>0.9732519664235241</v>
-      </c>
-      <c r="F9">
-        <v>0.9842829599640899</v>
+        <v>0.9830661063501153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032740344654721</v>
+        <v>1.033991706084116</v>
       </c>
       <c r="J9">
-        <v>0.9913234076926556</v>
+        <v>0.9989104171194976</v>
       </c>
       <c r="K9">
-        <v>1.004479918115931</v>
+        <v>1.009573524675621</v>
       </c>
       <c r="L9">
-        <v>0.9867944501903467</v>
-      </c>
-      <c r="M9">
-        <v>0.9976362883439994</v>
+        <v>0.9964400320107595</v>
       </c>
       <c r="N9">
-        <v>0.9927312006379632</v>
+        <v>1.000328984488433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9468660678427643</v>
+        <v>0.9618608976567092</v>
       </c>
       <c r="D10">
-        <v>0.9774248110606436</v>
+        <v>0.9888192740816937</v>
       </c>
       <c r="E10">
-        <v>0.9580432392047937</v>
-      </c>
-      <c r="F10">
-        <v>0.9675693732271982</v>
+        <v>0.9745951834898405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025989720475775</v>
+        <v>1.031473403551557</v>
       </c>
       <c r="J10">
-        <v>0.9773588011706199</v>
+        <v>0.9916739095116965</v>
       </c>
       <c r="K10">
-        <v>0.9922139917596335</v>
+        <v>1.003393377598235</v>
       </c>
       <c r="L10">
-        <v>0.9732137378819226</v>
-      </c>
-      <c r="M10">
-        <v>0.9825499458813101</v>
+        <v>0.9894387963911225</v>
       </c>
       <c r="N10">
-        <v>0.978746762772904</v>
+        <v>0.9930822002097905</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9387216762642002</v>
+        <v>0.957144830970285</v>
       </c>
       <c r="D11">
-        <v>0.9710387538380535</v>
+        <v>0.9854052048766344</v>
       </c>
       <c r="E11">
-        <v>0.9510066080711532</v>
-      </c>
-      <c r="F11">
-        <v>0.9598537537211315</v>
+        <v>0.9707957717057626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022845677160446</v>
+        <v>1.030326754579525</v>
       </c>
       <c r="J11">
-        <v>0.9708862207817452</v>
+        <v>0.9884158835985796</v>
       </c>
       <c r="K11">
-        <v>0.9865283143573171</v>
+        <v>1.000607707981078</v>
       </c>
       <c r="L11">
-        <v>0.9669156441806283</v>
-      </c>
-      <c r="M11">
-        <v>0.9755746739905443</v>
+        <v>0.9862902835960592</v>
       </c>
       <c r="N11">
-        <v>0.9722649905774613</v>
+        <v>0.9898195475261762</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9356051066426511</v>
+        <v>0.9553642358111614</v>
       </c>
       <c r="D12">
-        <v>0.9685976598771368</v>
+        <v>0.9841174217256775</v>
       </c>
       <c r="E12">
-        <v>0.9483154417966052</v>
-      </c>
-      <c r="F12">
-        <v>0.9569056088331477</v>
+        <v>0.9693632514694931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021640186799784</v>
+        <v>1.029891894798742</v>
       </c>
       <c r="J12">
-        <v>0.9684089610106537</v>
+        <v>0.9871856183191609</v>
       </c>
       <c r="K12">
-        <v>0.9843522642757562</v>
+        <v>0.9995553666324073</v>
       </c>
       <c r="L12">
-        <v>0.9645046655270493</v>
-      </c>
-      <c r="M12">
-        <v>0.972907774208711</v>
+        <v>0.9851019208665058</v>
       </c>
       <c r="N12">
-        <v>0.9697842128133493</v>
+        <v>0.9885875351289474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9362779716716666</v>
+        <v>0.9557475210947617</v>
       </c>
       <c r="D13">
-        <v>0.9691245635968633</v>
+        <v>0.9843945672766469</v>
       </c>
       <c r="E13">
-        <v>0.9488963887699815</v>
-      </c>
-      <c r="F13">
-        <v>0.9575419066160598</v>
+        <v>0.9696715193233681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021900554372034</v>
+        <v>1.029985586978715</v>
       </c>
       <c r="J13">
-        <v>0.9689438147997357</v>
+        <v>0.9874504471325798</v>
       </c>
       <c r="K13">
-        <v>0.9848220817589399</v>
+        <v>0.9997819145241255</v>
       </c>
       <c r="L13">
-        <v>0.9650252310571115</v>
-      </c>
-      <c r="M13">
-        <v>0.9734834451086479</v>
+        <v>0.985357704699287</v>
       </c>
       <c r="N13">
-        <v>0.9703198261561604</v>
+        <v>0.9888527400296574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9384660002946766</v>
+        <v>0.9569982477953626</v>
       </c>
       <c r="D14">
-        <v>0.9708384362975343</v>
+        <v>0.985299165201725</v>
       </c>
       <c r="E14">
-        <v>0.9507857986645842</v>
-      </c>
-      <c r="F14">
-        <v>0.9596118040299926</v>
+        <v>0.9706778018547932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022746828204903</v>
+        <v>1.030290994443441</v>
       </c>
       <c r="J14">
-        <v>0.9706829995219101</v>
+        <v>0.9883146077632642</v>
       </c>
       <c r="K14">
-        <v>0.9863498013437331</v>
+        <v>1.000521087625909</v>
       </c>
       <c r="L14">
-        <v>0.9667178702579583</v>
-      </c>
-      <c r="M14">
-        <v>0.9753558389205372</v>
+        <v>0.9861924459835086</v>
       </c>
       <c r="N14">
-        <v>0.9720614807201274</v>
+        <v>0.9897181278675579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9398016163874533</v>
+        <v>0.9577649730980438</v>
       </c>
       <c r="D15">
-        <v>0.9718849766955807</v>
+        <v>0.9858538728040348</v>
       </c>
       <c r="E15">
-        <v>0.951939339575698</v>
-      </c>
-      <c r="F15">
-        <v>0.9608758948880515</v>
+        <v>0.971294942420572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023263106812902</v>
+        <v>1.030477965190394</v>
       </c>
       <c r="J15">
-        <v>0.9717445834093917</v>
+        <v>0.9888443400611919</v>
       </c>
       <c r="K15">
-        <v>0.9872823168547163</v>
+        <v>1.000974145379004</v>
       </c>
       <c r="L15">
-        <v>0.9677509783128838</v>
-      </c>
-      <c r="M15">
-        <v>0.9764990985255344</v>
+        <v>0.986704216757015</v>
       </c>
       <c r="N15">
-        <v>0.9731245721784947</v>
+        <v>0.9902486124461097</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9473944649614323</v>
+        <v>0.9621699649676287</v>
       </c>
       <c r="D16">
-        <v>0.97783946078635</v>
+        <v>0.9890431750051792</v>
       </c>
       <c r="E16">
-        <v>0.9584999519619311</v>
-      </c>
-      <c r="F16">
-        <v>0.9680705181377967</v>
+        <v>0.9748444438538824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026193365125592</v>
+        <v>1.03154827722671</v>
       </c>
       <c r="J16">
-        <v>0.9777786610090149</v>
+        <v>0.9918873953397894</v>
       </c>
       <c r="K16">
-        <v>0.9925828064501161</v>
+        <v>1.00357584818254</v>
       </c>
       <c r="L16">
-        <v>0.9736222099143272</v>
-      </c>
-      <c r="M16">
-        <v>0.9830027801475774</v>
+        <v>0.9896451814999777</v>
       </c>
       <c r="N16">
-        <v>0.9791672188604278</v>
+        <v>0.9932959892122463</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9520077095091573</v>
+        <v>0.9648840641867574</v>
       </c>
       <c r="D17">
-        <v>0.9814612623021109</v>
+        <v>0.9910101918147992</v>
       </c>
       <c r="E17">
-        <v>0.9624882446430874</v>
-      </c>
-      <c r="F17">
-        <v>0.9724487543964383</v>
+        <v>0.9770347479269873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027969410293464</v>
+        <v>1.032204271016556</v>
       </c>
       <c r="J17">
-        <v>0.9814438349341748</v>
+        <v>0.9937619462468998</v>
       </c>
       <c r="K17">
-        <v>0.9958023429171458</v>
+        <v>1.005177702605882</v>
       </c>
       <c r="L17">
-        <v>0.9771875912314367</v>
-      </c>
-      <c r="M17">
-        <v>0.9869577399994602</v>
+        <v>0.9914577904382715</v>
       </c>
       <c r="N17">
-        <v>0.9828375977529628</v>
+        <v>0.9951732021966588</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546482468401645</v>
+        <v>0.9664501507116922</v>
       </c>
       <c r="D18">
-        <v>0.9835356105746035</v>
+        <v>0.9921458459003238</v>
       </c>
       <c r="E18">
-        <v>0.9647717664662265</v>
-      </c>
-      <c r="F18">
-        <v>0.9749571332788404</v>
+        <v>0.9782997417929302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028984370458563</v>
+        <v>1.032581514198887</v>
       </c>
       <c r="J18">
-        <v>0.9835412867403956</v>
+        <v>0.9948434208996393</v>
       </c>
       <c r="K18">
-        <v>0.9976447244840227</v>
+        <v>1.006101543625636</v>
       </c>
       <c r="L18">
-        <v>0.9792276146077524</v>
-      </c>
-      <c r="M18">
-        <v>0.9892226094192712</v>
+        <v>0.9925038667909488</v>
       </c>
       <c r="N18">
-        <v>0.9849380281813294</v>
+        <v>0.996256212667452</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9555403872979387</v>
+        <v>0.9669813228413576</v>
       </c>
       <c r="D19">
-        <v>0.9842366639115041</v>
+        <v>0.9925311324683576</v>
       </c>
       <c r="E19">
-        <v>0.9655433937757936</v>
-      </c>
-      <c r="F19">
-        <v>0.9758050095995424</v>
+        <v>0.9787289824510071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029327008301224</v>
+        <v>1.032709244986709</v>
       </c>
       <c r="J19">
-        <v>0.98424986004129</v>
+        <v>0.9952101935459499</v>
       </c>
       <c r="K19">
-        <v>0.998267117729624</v>
+        <v>1.006414802658433</v>
       </c>
       <c r="L19">
-        <v>0.979916732302617</v>
-      </c>
-      <c r="M19">
-        <v>0.9899880049343397</v>
+        <v>0.9928586913950201</v>
       </c>
       <c r="N19">
-        <v>0.9856476077375854</v>
+        <v>0.9966235061729898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9515180303010005</v>
+        <v>0.9645946402137373</v>
       </c>
       <c r="D20">
-        <v>0.9810766832670317</v>
+        <v>0.9908003660835076</v>
       </c>
       <c r="E20">
-        <v>0.9620648272109126</v>
-      </c>
-      <c r="F20">
-        <v>0.971983771997565</v>
+        <v>0.9768010599179691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027781056461734</v>
+        <v>1.032134449724829</v>
       </c>
       <c r="J20">
-        <v>0.9810548330072306</v>
+        <v>0.9935620670080003</v>
       </c>
       <c r="K20">
-        <v>0.9954606428398116</v>
+        <v>1.005006932116393</v>
       </c>
       <c r="L20">
-        <v>0.9768092140558661</v>
-      </c>
-      <c r="M20">
-        <v>0.9865378157298509</v>
+        <v>0.9912644808061122</v>
       </c>
       <c r="N20">
-        <v>0.9824480433986633</v>
+        <v>0.9949730391063139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9378243093358299</v>
+        <v>0.9566307542246888</v>
       </c>
       <c r="D21">
-        <v>0.9703357267363003</v>
+        <v>0.9850333372601942</v>
       </c>
       <c r="E21">
-        <v>0.950231640530422</v>
-      </c>
-      <c r="F21">
-        <v>0.9590046345297784</v>
+        <v>0.9703820761603981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022498701583748</v>
+        <v>1.030201310702184</v>
       </c>
       <c r="J21">
-        <v>0.9701729523830389</v>
+        <v>0.9880607003223895</v>
       </c>
       <c r="K21">
-        <v>0.985901768230561</v>
+        <v>1.000303915793873</v>
       </c>
       <c r="L21">
-        <v>0.9662214869589094</v>
-      </c>
-      <c r="M21">
-        <v>0.9748066488655585</v>
+        <v>0.9859471673434071</v>
       </c>
       <c r="N21">
-        <v>0.9715507092558159</v>
+        <v>0.9894638598489937</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9286780333838714</v>
+        <v>0.9514554704371779</v>
       </c>
       <c r="D22">
-        <v>0.963177408028829</v>
+        <v>0.9812929560598046</v>
       </c>
       <c r="E22">
-        <v>0.9423371197034259</v>
-      </c>
-      <c r="F22">
-        <v>0.9503615649574425</v>
+        <v>0.9662224014415524</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018956667873486</v>
+        <v>1.028933839994691</v>
       </c>
       <c r="J22">
-        <v>0.9629023566791032</v>
+        <v>0.984484751694929</v>
       </c>
       <c r="K22">
-        <v>0.9795154068419147</v>
+        <v>0.9972443408257577</v>
       </c>
       <c r="L22">
-        <v>0.9591444926498979</v>
-      </c>
-      <c r="M22">
-        <v>0.9669849560357257</v>
+        <v>0.98249406959686</v>
       </c>
       <c r="N22">
-        <v>0.9642697884720313</v>
+        <v>0.9858828329643152</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9335821022827048</v>
+        <v>0.9542156882053886</v>
       </c>
       <c r="D23">
-        <v>0.9670139218268802</v>
+        <v>0.9832871259495467</v>
       </c>
       <c r="E23">
-        <v>0.9465690441168286</v>
-      </c>
-      <c r="F23">
-        <v>0.9549932253844825</v>
+        <v>0.9684398022665914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020857048699923</v>
+        <v>1.029610862512946</v>
       </c>
       <c r="J23">
-        <v>0.9668008519584904</v>
+        <v>0.986392019721319</v>
       </c>
       <c r="K23">
-        <v>0.9829397098995137</v>
+        <v>0.9988764210869369</v>
       </c>
       <c r="L23">
-        <v>0.9629394443826412</v>
-      </c>
-      <c r="M23">
-        <v>0.971177362103532</v>
+        <v>0.9843355082396054</v>
       </c>
       <c r="N23">
-        <v>0.9681738200618792</v>
+        <v>0.9877928095300691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9517394498112656</v>
+        <v>0.9647254708319362</v>
       </c>
       <c r="D24">
-        <v>0.9812505753612328</v>
+        <v>0.9908952132769592</v>
       </c>
       <c r="E24">
-        <v>0.9622562828204024</v>
-      </c>
-      <c r="F24">
-        <v>0.9721940169831641</v>
+        <v>0.9769066922150983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027866229948027</v>
+        <v>1.032166015571294</v>
       </c>
       <c r="J24">
-        <v>0.9812307303586377</v>
+        <v>0.9936524205645341</v>
       </c>
       <c r="K24">
-        <v>0.9956151515830807</v>
+        <v>1.005084128293093</v>
       </c>
       <c r="L24">
-        <v>0.9769803081490928</v>
-      </c>
-      <c r="M24">
-        <v>0.986727690503988</v>
+        <v>0.9913518635856303</v>
       </c>
       <c r="N24">
-        <v>0.9826241905444847</v>
+        <v>0.9950635209752615</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9708602825731556</v>
+        <v>0.9762603014659076</v>
       </c>
       <c r="D25">
-        <v>0.9962904632213611</v>
+        <v>0.9992696623359127</v>
       </c>
       <c r="E25">
-        <v>0.9788014693633885</v>
-      </c>
-      <c r="F25">
-        <v>0.9903953302076162</v>
+        <v>0.9862429231264702</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035186012136715</v>
+        <v>1.034921174470347</v>
       </c>
       <c r="J25">
-        <v>0.9964097464556754</v>
+        <v>1.001613892339563</v>
       </c>
       <c r="K25">
-        <v>1.008946639215252</v>
+        <v>1.011879326445541</v>
       </c>
       <c r="L25">
-        <v>0.991738027639229</v>
-      </c>
-      <c r="M25">
-        <v>1.003144598881823</v>
+        <v>0.9990586213022321</v>
       </c>
       <c r="N25">
-        <v>0.9978247625854377</v>
+        <v>1.003036298953404</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9849947022840316</v>
+        <v>1.017467014922242</v>
       </c>
       <c r="D2">
-        <v>1.005624862240146</v>
+        <v>1.034371124274321</v>
       </c>
       <c r="E2">
-        <v>0.9933429317035841</v>
+        <v>1.030757941920576</v>
+      </c>
+      <c r="F2">
+        <v>1.039824083470942</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036965270236298</v>
+        <v>1.049769381624935</v>
       </c>
       <c r="J2">
-        <v>1.007633673130284</v>
+        <v>1.039137552918734</v>
       </c>
       <c r="K2">
-        <v>1.01700638609483</v>
+        <v>1.045371514796988</v>
       </c>
       <c r="L2">
-        <v>1.004895795832982</v>
+        <v>1.041804776305869</v>
+      </c>
+      <c r="M2">
+        <v>1.050755144396154</v>
       </c>
       <c r="N2">
-        <v>1.009064628523326</v>
+        <v>1.040613247434635</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9910954556771043</v>
+        <v>1.021346698839101</v>
       </c>
       <c r="D3">
-        <v>1.0100694235956</v>
+        <v>1.037242747632578</v>
       </c>
       <c r="E3">
-        <v>0.9983178245451853</v>
+        <v>1.033954137959208</v>
+      </c>
+      <c r="F3">
+        <v>1.043307472695176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038367332093143</v>
+        <v>1.050814792624625</v>
       </c>
       <c r="J3">
-        <v>1.011831846538428</v>
+        <v>1.041271876371424</v>
       </c>
       <c r="K3">
-        <v>1.020575065296003</v>
+        <v>1.047420284818531</v>
       </c>
       <c r="L3">
-        <v>1.008972274465818</v>
+        <v>1.044170247544919</v>
+      </c>
+      <c r="M3">
+        <v>1.053414663890197</v>
       </c>
       <c r="N3">
-        <v>1.013268763819248</v>
+        <v>1.042750601871425</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9949399093806616</v>
+        <v>1.023812788154121</v>
       </c>
       <c r="D4">
-        <v>1.012872087482388</v>
+        <v>1.039071343098521</v>
       </c>
       <c r="E4">
-        <v>1.001459529214729</v>
+        <v>1.035991459311243</v>
+      </c>
+      <c r="F4">
+        <v>1.045527852484939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039238560938376</v>
+        <v>1.051471464847326</v>
       </c>
       <c r="J4">
-        <v>1.014473944494139</v>
+        <v>1.042626370544011</v>
       </c>
       <c r="K4">
-        <v>1.022817600973537</v>
+        <v>1.04872001622744</v>
       </c>
       <c r="L4">
-        <v>1.011540370865635</v>
+        <v>1.045674070226259</v>
+      </c>
+      <c r="M4">
+        <v>1.055106176146762</v>
       </c>
       <c r="N4">
-        <v>1.015914613857108</v>
+        <v>1.0441070195811</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965325824813834</v>
+        <v>1.024839239327024</v>
       </c>
       <c r="D5">
-        <v>1.014033519585607</v>
+        <v>1.039833198126792</v>
       </c>
       <c r="E5">
-        <v>1.002762606993928</v>
+        <v>1.036840777479008</v>
+      </c>
+      <c r="F5">
+        <v>1.046453486185585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039596481525604</v>
+        <v>1.051742879388803</v>
       </c>
       <c r="J5">
-        <v>1.015567626205583</v>
+        <v>1.043189598889537</v>
       </c>
       <c r="K5">
-        <v>1.023745043333115</v>
+        <v>1.049260354126654</v>
       </c>
       <c r="L5">
-        <v>1.012604037420988</v>
+        <v>1.046300026871852</v>
+      </c>
+      <c r="M5">
+        <v>1.055810437886363</v>
       </c>
       <c r="N5">
-        <v>1.01700984872203</v>
+        <v>1.04467104777548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996798651338821</v>
+        <v>1.025010990450133</v>
       </c>
       <c r="D6">
-        <v>1.014227563898802</v>
+        <v>1.039960718347301</v>
       </c>
       <c r="E6">
-        <v>1.002980384976157</v>
+        <v>1.036982967119831</v>
+      </c>
+      <c r="F6">
+        <v>1.046608452505056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039656096290983</v>
+        <v>1.051788180772121</v>
       </c>
       <c r="J6">
-        <v>1.015750280997545</v>
+        <v>1.043283808209973</v>
       </c>
       <c r="K6">
-        <v>1.023899884260478</v>
+        <v>1.049350727463262</v>
       </c>
       <c r="L6">
-        <v>1.012781715634997</v>
+        <v>1.046404765880499</v>
+      </c>
+      <c r="M6">
+        <v>1.055928290012113</v>
       </c>
       <c r="N6">
-        <v>1.017192762904747</v>
+        <v>1.044765390883957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949612817625315</v>
+        <v>1.023826543674911</v>
       </c>
       <c r="D7">
-        <v>1.012887671705561</v>
+        <v>1.039081549861657</v>
       </c>
       <c r="E7">
-        <v>1.001477009474097</v>
+        <v>1.036002835849903</v>
+      </c>
+      <c r="F7">
+        <v>1.045540251250375</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039243375927778</v>
+        <v>1.051475109664823</v>
       </c>
       <c r="J7">
-        <v>1.014488624380457</v>
+        <v>1.04263392059105</v>
       </c>
       <c r="K7">
-        <v>1.022830052892385</v>
+        <v>1.048727259907266</v>
       </c>
       <c r="L7">
-        <v>1.011554645436208</v>
+        <v>1.045682458635613</v>
+      </c>
+      <c r="M7">
+        <v>1.055115613205338</v>
       </c>
       <c r="N7">
-        <v>1.015929314590549</v>
+        <v>1.044114580350071</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870785594484585</v>
+        <v>1.01878754640769</v>
       </c>
       <c r="D8">
-        <v>1.007142549077332</v>
+        <v>1.035347832151881</v>
       </c>
       <c r="E8">
-        <v>0.995040761297758</v>
+        <v>1.031844623786273</v>
+      </c>
+      <c r="F8">
+        <v>1.041008411691868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037446728668592</v>
+        <v>1.050126830535697</v>
       </c>
       <c r="J8">
-        <v>1.009068342363338</v>
+        <v>1.03986445237343</v>
       </c>
       <c r="K8">
-        <v>1.018226631462718</v>
+        <v>1.046069370957205</v>
       </c>
       <c r="L8">
-        <v>1.006288330331299</v>
+        <v>1.042609847685252</v>
+      </c>
+      <c r="M8">
+        <v>1.051660135800131</v>
       </c>
       <c r="N8">
-        <v>1.01050133515125</v>
+        <v>1.041341179169919</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972341690707578</v>
+        <v>1.009553706491746</v>
       </c>
       <c r="D9">
-        <v>0.9964221310934325</v>
+        <v>1.028533664962995</v>
       </c>
       <c r="E9">
-        <v>0.9830661063501153</v>
+        <v>1.024271377554661</v>
+      </c>
+      <c r="F9">
+        <v>1.032754502450821</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033991706084116</v>
+        <v>1.047595525791662</v>
       </c>
       <c r="J9">
-        <v>0.9989104171194976</v>
+        <v>1.034773551497248</v>
       </c>
       <c r="K9">
-        <v>1.009573524675621</v>
+        <v>1.041180165342566</v>
       </c>
       <c r="L9">
-        <v>0.9964400320107595</v>
+        <v>1.036982570514871</v>
+      </c>
+      <c r="M9">
+        <v>1.045337608837634</v>
       </c>
       <c r="N9">
-        <v>1.000328984488433</v>
+        <v>1.036243048630559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618608976567092</v>
+        <v>1.003137433561839</v>
       </c>
       <c r="D10">
-        <v>0.9888192740816937</v>
+        <v>1.023820281923252</v>
       </c>
       <c r="E10">
-        <v>0.9745951834898405</v>
+        <v>1.019042818467852</v>
+      </c>
+      <c r="F10">
+        <v>1.027055676982716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031473403551557</v>
+        <v>1.045797602722291</v>
       </c>
       <c r="J10">
-        <v>0.9916739095116965</v>
+        <v>1.03122712275256</v>
       </c>
       <c r="K10">
-        <v>1.003393377598235</v>
+        <v>1.037772372616551</v>
       </c>
       <c r="L10">
-        <v>0.9894387963911225</v>
+        <v>1.033076555405518</v>
+      </c>
+      <c r="M10">
+        <v>1.040953031589019</v>
       </c>
       <c r="N10">
-        <v>0.9930822002097905</v>
+        <v>1.032691583550273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.957144830970285</v>
+        <v>1.000292112150934</v>
       </c>
       <c r="D11">
-        <v>0.9854052048766344</v>
+        <v>1.021735866214186</v>
       </c>
       <c r="E11">
-        <v>0.9707957717057626</v>
+        <v>1.016732764307037</v>
+      </c>
+      <c r="F11">
+        <v>1.024537724365048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030326754579525</v>
+        <v>1.044991504606195</v>
       </c>
       <c r="J11">
-        <v>0.9884158835985796</v>
+        <v>1.029652743963322</v>
       </c>
       <c r="K11">
-        <v>1.000607707981078</v>
+        <v>1.036259196066778</v>
       </c>
       <c r="L11">
-        <v>0.9862902835960592</v>
+        <v>1.031345876689789</v>
+      </c>
+      <c r="M11">
+        <v>1.039011270687379</v>
       </c>
       <c r="N11">
-        <v>0.9898195475261762</v>
+        <v>1.03111496896257</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9553642358111614</v>
+        <v>0.9992246863053987</v>
       </c>
       <c r="D12">
-        <v>0.9841174217256775</v>
+        <v>1.020954816178806</v>
       </c>
       <c r="E12">
-        <v>0.9693632514694931</v>
+        <v>1.015867481074591</v>
+      </c>
+      <c r="F12">
+        <v>1.023594544721679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029891894798742</v>
+        <v>1.044687812798196</v>
       </c>
       <c r="J12">
-        <v>0.9871856183191609</v>
+        <v>1.02906189508316</v>
       </c>
       <c r="K12">
-        <v>0.9995553666324073</v>
+        <v>1.03569127305487</v>
       </c>
       <c r="L12">
-        <v>0.9851019208665058</v>
+        <v>1.03069687082775</v>
+      </c>
+      <c r="M12">
+        <v>1.038283253531218</v>
       </c>
       <c r="N12">
-        <v>0.9885875351289474</v>
+        <v>1.030523281009227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9557475210947617</v>
+        <v>0.9994541379811557</v>
       </c>
       <c r="D13">
-        <v>0.9843945672766469</v>
+        <v>1.021122666533374</v>
       </c>
       <c r="E13">
-        <v>0.9696715193233681</v>
+        <v>1.016053419385461</v>
+      </c>
+      <c r="F13">
+        <v>1.023797223097084</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029985586978715</v>
+        <v>1.04475315110981</v>
       </c>
       <c r="J13">
-        <v>0.9874504471325798</v>
+        <v>1.029188912029354</v>
       </c>
       <c r="K13">
-        <v>0.9997819145241255</v>
+        <v>1.035813363329953</v>
       </c>
       <c r="L13">
-        <v>0.985357704699287</v>
+        <v>1.030836367353789</v>
+      </c>
+      <c r="M13">
+        <v>1.038439726098376</v>
       </c>
       <c r="N13">
-        <v>0.9888527400296574</v>
+        <v>1.030650478334053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9569982477953626</v>
+        <v>1.000204096396914</v>
       </c>
       <c r="D14">
-        <v>0.985299165201725</v>
+        <v>1.02167144481986</v>
       </c>
       <c r="E14">
-        <v>0.9706778018547932</v>
+        <v>1.016661388973364</v>
+      </c>
+      <c r="F14">
+        <v>1.024459924024243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030290994443441</v>
+        <v>1.044966489232706</v>
       </c>
       <c r="J14">
-        <v>0.9883146077632642</v>
+        <v>1.02960402911052</v>
       </c>
       <c r="K14">
-        <v>1.000521087625909</v>
+        <v>1.036212372244281</v>
       </c>
       <c r="L14">
-        <v>0.9861924459835086</v>
+        <v>1.031292356669901</v>
+      </c>
+      <c r="M14">
+        <v>1.0389512320847</v>
       </c>
       <c r="N14">
-        <v>0.9897181278675579</v>
+        <v>1.03106618492909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9577649730980438</v>
+        <v>1.000664758282089</v>
       </c>
       <c r="D15">
-        <v>0.9858538728040348</v>
+        <v>1.022008655111749</v>
       </c>
       <c r="E15">
-        <v>0.971294942420572</v>
+        <v>1.017035012084182</v>
+      </c>
+      <c r="F15">
+        <v>1.024867178661825</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030477965190394</v>
+        <v>1.045097364023843</v>
       </c>
       <c r="J15">
-        <v>0.9888443400611919</v>
+        <v>1.029858986992475</v>
       </c>
       <c r="K15">
-        <v>1.000974145379004</v>
+        <v>1.036457431391735</v>
       </c>
       <c r="L15">
-        <v>0.986704216757015</v>
+        <v>1.031572483680407</v>
+      </c>
+      <c r="M15">
+        <v>1.039265483657104</v>
       </c>
       <c r="N15">
-        <v>0.9902486124461097</v>
+        <v>1.031321504880481</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621699649676287</v>
+        <v>1.003324815868398</v>
       </c>
       <c r="D16">
-        <v>0.9890431750051792</v>
+        <v>1.023957678614504</v>
       </c>
       <c r="E16">
-        <v>0.9748444438538824</v>
+        <v>1.019195133007596</v>
+      </c>
+      <c r="F16">
+        <v>1.02722169638872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03154827722671</v>
+        <v>1.045850508953207</v>
       </c>
       <c r="J16">
-        <v>0.9918873953397894</v>
+        <v>1.031330773081741</v>
       </c>
       <c r="K16">
-        <v>1.00357584818254</v>
+        <v>1.037871987235833</v>
       </c>
       <c r="L16">
-        <v>0.9896451814999777</v>
+        <v>1.03319056537973</v>
+      </c>
+      <c r="M16">
+        <v>1.041080966859355</v>
       </c>
       <c r="N16">
-        <v>0.9932959892122463</v>
+        <v>1.032795381074811</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9648840641867574</v>
+        <v>1.004975125645307</v>
       </c>
       <c r="D17">
-        <v>0.9910101918147992</v>
+        <v>1.025168419048862</v>
       </c>
       <c r="E17">
-        <v>0.9770347479269873</v>
+        <v>1.020537578165428</v>
+      </c>
+      <c r="F17">
+        <v>1.028684916156018</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032204271016556</v>
+        <v>1.046315464221634</v>
       </c>
       <c r="J17">
-        <v>0.9937619462468998</v>
+        <v>1.032243450558611</v>
       </c>
       <c r="K17">
-        <v>1.005177702605882</v>
+        <v>1.038749090817987</v>
       </c>
       <c r="L17">
-        <v>0.9914577904382715</v>
+        <v>1.034194843125351</v>
+      </c>
+      <c r="M17">
+        <v>1.042208017670341</v>
       </c>
       <c r="N17">
-        <v>0.9951732021966588</v>
+        <v>1.033709354658383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664501507116922</v>
+        <v>1.005931289258134</v>
       </c>
       <c r="D18">
-        <v>0.9921458459003238</v>
+        <v>1.025870446407088</v>
       </c>
       <c r="E18">
-        <v>0.9782997417929302</v>
+        <v>1.021316181808364</v>
+      </c>
+      <c r="F18">
+        <v>1.029533555849416</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032581514198887</v>
+        <v>1.046584012078531</v>
       </c>
       <c r="J18">
-        <v>0.9948434208996393</v>
+        <v>1.032772077277185</v>
       </c>
       <c r="K18">
-        <v>1.006101543625636</v>
+        <v>1.039257079787322</v>
       </c>
       <c r="L18">
-        <v>0.9925038667909488</v>
+        <v>1.034776841895622</v>
+      </c>
+      <c r="M18">
+        <v>1.042861257111257</v>
       </c>
       <c r="N18">
-        <v>0.996256212667452</v>
+        <v>1.034238732087532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9669813228413576</v>
+        <v>1.006256239000625</v>
       </c>
       <c r="D19">
-        <v>0.9925311324683576</v>
+        <v>1.026109119096992</v>
       </c>
       <c r="E19">
-        <v>0.9787289824510071</v>
+        <v>1.021580924558181</v>
+      </c>
+      <c r="F19">
+        <v>1.029822110532665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032709244986709</v>
+        <v>1.046675133746415</v>
       </c>
       <c r="J19">
-        <v>0.9952101935459499</v>
+        <v>1.032951700756208</v>
       </c>
       <c r="K19">
-        <v>1.006414802658433</v>
+        <v>1.039429684821693</v>
       </c>
       <c r="L19">
-        <v>0.9928586913950201</v>
+        <v>1.034974654540194</v>
+      </c>
+      <c r="M19">
+        <v>1.043083298855034</v>
       </c>
       <c r="N19">
-        <v>0.9966235061729898</v>
+        <v>1.034418610652498</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9645946402137373</v>
+        <v>1.004798731892405</v>
       </c>
       <c r="D20">
-        <v>0.9908003660835076</v>
+        <v>1.025038952026341</v>
       </c>
       <c r="E20">
-        <v>0.9768010599179691</v>
+        <v>1.020394006051597</v>
+      </c>
+      <c r="F20">
+        <v>1.028528428677438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032134449724829</v>
+        <v>1.046265854194313</v>
       </c>
       <c r="J20">
-        <v>0.9935620670080003</v>
+        <v>1.032145915589513</v>
       </c>
       <c r="K20">
-        <v>1.005006932116393</v>
+        <v>1.038655360900265</v>
       </c>
       <c r="L20">
-        <v>0.9912644808061122</v>
+        <v>1.034087486268427</v>
+      </c>
+      <c r="M20">
+        <v>1.042087526959488</v>
       </c>
       <c r="N20">
-        <v>0.9949730391063139</v>
+        <v>1.033611681178441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9566307542246888</v>
+        <v>0.9999835474384716</v>
       </c>
       <c r="D21">
-        <v>0.9850333372601942</v>
+        <v>1.021510033403356</v>
       </c>
       <c r="E21">
-        <v>0.9703820761603981</v>
+        <v>1.016482559114066</v>
+      </c>
+      <c r="F21">
+        <v>1.024264996012977</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030201310702184</v>
+        <v>1.044903785428584</v>
       </c>
       <c r="J21">
-        <v>0.9880607003223895</v>
+        <v>1.029481956543069</v>
       </c>
       <c r="K21">
-        <v>1.000303915793873</v>
+        <v>1.036095037674585</v>
       </c>
       <c r="L21">
-        <v>0.9859471673434071</v>
+        <v>1.031158251101731</v>
+      </c>
+      <c r="M21">
+        <v>1.038800795182478</v>
       </c>
       <c r="N21">
-        <v>0.9894638598489937</v>
+        <v>1.030943939004591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9514554704371779</v>
+        <v>0.9968947734460317</v>
       </c>
       <c r="D22">
-        <v>0.9812929560598046</v>
+        <v>1.019251744043015</v>
       </c>
       <c r="E22">
-        <v>0.9662224014415524</v>
+        <v>1.013981303878059</v>
+      </c>
+      <c r="F22">
+        <v>1.021538518566979</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028933839994691</v>
+        <v>1.044022619616923</v>
       </c>
       <c r="J22">
-        <v>0.984484751694929</v>
+        <v>1.027771865559937</v>
       </c>
       <c r="K22">
-        <v>0.9972443408257577</v>
+        <v>1.034451230137044</v>
       </c>
       <c r="L22">
-        <v>0.98249406959686</v>
+        <v>1.029280785078003</v>
+      </c>
+      <c r="M22">
+        <v>1.036695037145242</v>
       </c>
       <c r="N22">
-        <v>0.9858828329643152</v>
+        <v>1.029231419496113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9542156882053886</v>
+        <v>0.9985381654382145</v>
       </c>
       <c r="D23">
-        <v>0.9832871259495467</v>
+        <v>1.020452746307899</v>
       </c>
       <c r="E23">
-        <v>0.9684398022665914</v>
+        <v>1.015311352155234</v>
+      </c>
+      <c r="F23">
+        <v>1.022988343663992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029610862512946</v>
+        <v>1.044492135237731</v>
       </c>
       <c r="J23">
-        <v>0.986392019721319</v>
+        <v>1.028681830426337</v>
       </c>
       <c r="K23">
-        <v>0.9988764210869369</v>
+        <v>1.035325944590223</v>
       </c>
       <c r="L23">
-        <v>0.9843355082396054</v>
+        <v>1.030279537744042</v>
+      </c>
+      <c r="M23">
+        <v>1.03781515431526</v>
       </c>
       <c r="N23">
-        <v>0.9877928095300691</v>
+        <v>1.030142676616997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9647254708319362</v>
+        <v>1.004878456485881</v>
       </c>
       <c r="D24">
-        <v>0.9908952132769592</v>
+        <v>1.025097465490207</v>
       </c>
       <c r="E24">
-        <v>0.9769066922150983</v>
+        <v>1.020458893753187</v>
+      </c>
+      <c r="F24">
+        <v>1.028599153540334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032166015571294</v>
+        <v>1.046288279018733</v>
       </c>
       <c r="J24">
-        <v>0.9936524205645341</v>
+        <v>1.03218999893114</v>
       </c>
       <c r="K24">
-        <v>1.005084128293093</v>
+        <v>1.038697724558369</v>
       </c>
       <c r="L24">
-        <v>0.9913518635856303</v>
+        <v>1.034136007873341</v>
+      </c>
+      <c r="M24">
+        <v>1.04214198433167</v>
       </c>
       <c r="N24">
-        <v>0.9950635209752615</v>
+        <v>1.03365582712347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762603014659076</v>
+        <v>1.011985080429608</v>
       </c>
       <c r="D25">
-        <v>0.9992696623359127</v>
+        <v>1.030324391631046</v>
       </c>
       <c r="E25">
-        <v>0.9862429231264702</v>
+        <v>1.026259823922821</v>
+      </c>
+      <c r="F25">
+        <v>1.034921708020097</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034921174470347</v>
+        <v>1.048268936139678</v>
       </c>
       <c r="J25">
-        <v>1.001613892339563</v>
+        <v>1.036115722931139</v>
       </c>
       <c r="K25">
-        <v>1.011879326445541</v>
+        <v>1.04246951657703</v>
       </c>
       <c r="L25">
-        <v>0.9990586213022321</v>
+        <v>1.038463721618329</v>
+      </c>
+      <c r="M25">
+        <v>1.047001060667637</v>
       </c>
       <c r="N25">
-        <v>1.003036298953404</v>
+        <v>1.037587126101836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017467014922242</v>
+        <v>1.042552731154559</v>
       </c>
       <c r="D2">
-        <v>1.034371124274321</v>
+        <v>1.048823031399251</v>
       </c>
       <c r="E2">
-        <v>1.030757941920576</v>
+        <v>1.050467562864365</v>
       </c>
       <c r="F2">
-        <v>1.039824083470942</v>
+        <v>1.060805173670996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049769381624935</v>
+        <v>1.041624720762456</v>
       </c>
       <c r="J2">
-        <v>1.039137552918734</v>
+        <v>1.047627936952472</v>
       </c>
       <c r="K2">
-        <v>1.045371514796988</v>
+        <v>1.051581803157005</v>
       </c>
       <c r="L2">
-        <v>1.041804776305869</v>
+        <v>1.053221758389633</v>
       </c>
       <c r="M2">
-        <v>1.050755144396154</v>
+        <v>1.063530954634238</v>
       </c>
       <c r="N2">
-        <v>1.040613247434635</v>
+        <v>1.049115688787549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021346698839101</v>
+        <v>1.043386590563229</v>
       </c>
       <c r="D3">
-        <v>1.037242747632578</v>
+        <v>1.049466880285963</v>
       </c>
       <c r="E3">
-        <v>1.033954137959208</v>
+        <v>1.051205231418866</v>
       </c>
       <c r="F3">
-        <v>1.043307472695176</v>
+        <v>1.061613989357125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050814792624625</v>
+        <v>1.041805540576699</v>
       </c>
       <c r="J3">
-        <v>1.041271876371424</v>
+        <v>1.04810885633163</v>
       </c>
       <c r="K3">
-        <v>1.047420284818531</v>
+        <v>1.052038209965285</v>
       </c>
       <c r="L3">
-        <v>1.044170247544919</v>
+        <v>1.053772071986228</v>
       </c>
       <c r="M3">
-        <v>1.053414663890197</v>
+        <v>1.064154281893712</v>
       </c>
       <c r="N3">
-        <v>1.042750601871425</v>
+        <v>1.049597291127387</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023812788154121</v>
+        <v>1.043926889628584</v>
       </c>
       <c r="D4">
-        <v>1.039071343098521</v>
+        <v>1.049884145871266</v>
       </c>
       <c r="E4">
-        <v>1.035991459311243</v>
+        <v>1.051683594754179</v>
       </c>
       <c r="F4">
-        <v>1.045527852484939</v>
+        <v>1.062138514721563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051471464847326</v>
+        <v>1.041921714711219</v>
       </c>
       <c r="J4">
-        <v>1.042626370544011</v>
+        <v>1.048420099927032</v>
       </c>
       <c r="K4">
-        <v>1.04872001622744</v>
+        <v>1.052333498719141</v>
       </c>
       <c r="L4">
-        <v>1.045674070226259</v>
+        <v>1.054128533716248</v>
       </c>
       <c r="M4">
-        <v>1.055106176146762</v>
+        <v>1.06455812664023</v>
       </c>
       <c r="N4">
-        <v>1.0441070195811</v>
+        <v>1.049908976724395</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024839239327024</v>
+        <v>1.044154205852373</v>
       </c>
       <c r="D5">
-        <v>1.039833198126792</v>
+        <v>1.050059718623298</v>
       </c>
       <c r="E5">
-        <v>1.036840777479008</v>
+        <v>1.051884946317846</v>
       </c>
       <c r="F5">
-        <v>1.046453486185585</v>
+        <v>1.062359302622904</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051742879388803</v>
+        <v>1.041970355263864</v>
       </c>
       <c r="J5">
-        <v>1.043189598889537</v>
+        <v>1.048550958932383</v>
       </c>
       <c r="K5">
-        <v>1.049260354126654</v>
+        <v>1.052457627888393</v>
       </c>
       <c r="L5">
-        <v>1.046300026871852</v>
+        <v>1.054278477770087</v>
       </c>
       <c r="M5">
-        <v>1.055810437886363</v>
+        <v>1.064728023437885</v>
       </c>
       <c r="N5">
-        <v>1.04467104777548</v>
+        <v>1.050040021564543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025010990450133</v>
+        <v>1.044192383427835</v>
       </c>
       <c r="D6">
-        <v>1.039960718347301</v>
+        <v>1.050089207054955</v>
       </c>
       <c r="E6">
-        <v>1.036982967119831</v>
+        <v>1.051918768595119</v>
       </c>
       <c r="F6">
-        <v>1.046608452505056</v>
+        <v>1.062396390091922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051788180772121</v>
+        <v>1.041978510532655</v>
       </c>
       <c r="J6">
-        <v>1.043283808209973</v>
+        <v>1.048572931411175</v>
       </c>
       <c r="K6">
-        <v>1.049350727463262</v>
+        <v>1.05247846908274</v>
       </c>
       <c r="L6">
-        <v>1.046404765880499</v>
+        <v>1.054303659125754</v>
       </c>
       <c r="M6">
-        <v>1.055928290012113</v>
+        <v>1.064756556872338</v>
       </c>
       <c r="N6">
-        <v>1.044765390883957</v>
+        <v>1.050062025246776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023826543674911</v>
+        <v>1.043929926355648</v>
       </c>
       <c r="D7">
-        <v>1.039081549861657</v>
+        <v>1.049886491279021</v>
       </c>
       <c r="E7">
-        <v>1.036002835849903</v>
+        <v>1.051686284253109</v>
       </c>
       <c r="F7">
-        <v>1.045540251250375</v>
+        <v>1.062141463812766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051475109664823</v>
+        <v>1.041922365431727</v>
       </c>
       <c r="J7">
-        <v>1.04263392059105</v>
+        <v>1.048421848425232</v>
       </c>
       <c r="K7">
-        <v>1.048727259907266</v>
+        <v>1.052335157381066</v>
       </c>
       <c r="L7">
-        <v>1.045682458635613</v>
+        <v>1.054130536933964</v>
       </c>
       <c r="M7">
-        <v>1.055115613205338</v>
+        <v>1.06456039633835</v>
       </c>
       <c r="N7">
-        <v>1.044114580350071</v>
+        <v>1.049910727705663</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01878754640769</v>
+        <v>1.042834384332627</v>
       </c>
       <c r="D8">
-        <v>1.035347832151881</v>
+        <v>1.049040486962045</v>
       </c>
       <c r="E8">
-        <v>1.031844623786273</v>
+        <v>1.050716644388157</v>
       </c>
       <c r="F8">
-        <v>1.041008411691868</v>
+        <v>1.061078273728679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050126830535697</v>
+        <v>1.041686000741511</v>
       </c>
       <c r="J8">
-        <v>1.03986445237343</v>
+        <v>1.047790453376092</v>
       </c>
       <c r="K8">
-        <v>1.046069370957205</v>
+        <v>1.051736054804636</v>
       </c>
       <c r="L8">
-        <v>1.042609847685252</v>
+        <v>1.05340766149813</v>
       </c>
       <c r="M8">
-        <v>1.051660135800131</v>
+        <v>1.063741504306405</v>
       </c>
       <c r="N8">
-        <v>1.041341179169919</v>
+        <v>1.049278436003131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009553706491746</v>
+        <v>1.040909616565048</v>
       </c>
       <c r="D9">
-        <v>1.028533664962995</v>
+        <v>1.047554797481317</v>
       </c>
       <c r="E9">
-        <v>1.024271377554661</v>
+        <v>1.049016085175072</v>
       </c>
       <c r="F9">
-        <v>1.032754502450821</v>
+        <v>1.059213830494937</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047595525791662</v>
+        <v>1.041263184323331</v>
       </c>
       <c r="J9">
-        <v>1.034773551497248</v>
+        <v>1.046678347938671</v>
       </c>
       <c r="K9">
-        <v>1.041180165342566</v>
+        <v>1.050680137085036</v>
       </c>
       <c r="L9">
-        <v>1.036982570514871</v>
+        <v>1.052136779351701</v>
       </c>
       <c r="M9">
-        <v>1.045337608837634</v>
+        <v>1.062302495977007</v>
       </c>
       <c r="N9">
-        <v>1.036243048630559</v>
+        <v>1.048164751248428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003137433561839</v>
+        <v>1.039630387623587</v>
       </c>
       <c r="D10">
-        <v>1.023820281923252</v>
+        <v>1.046567863481803</v>
       </c>
       <c r="E10">
-        <v>1.019042818467852</v>
+        <v>1.047887921410671</v>
       </c>
       <c r="F10">
-        <v>1.027055676982716</v>
+        <v>1.057977065864419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045797602722291</v>
+        <v>1.040977107371949</v>
       </c>
       <c r="J10">
-        <v>1.03122712275256</v>
+        <v>1.045937356798702</v>
       </c>
       <c r="K10">
-        <v>1.037772372616551</v>
+        <v>1.049976124424662</v>
       </c>
       <c r="L10">
-        <v>1.033076555405518</v>
+        <v>1.051291576696712</v>
       </c>
       <c r="M10">
-        <v>1.040953031589019</v>
+        <v>1.061345937854756</v>
       </c>
       <c r="N10">
-        <v>1.032691583550273</v>
+        <v>1.047422707816048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000292112150934</v>
+        <v>1.039077426438807</v>
       </c>
       <c r="D11">
-        <v>1.021735866214186</v>
+        <v>1.046141369995753</v>
       </c>
       <c r="E11">
-        <v>1.016732764307037</v>
+        <v>1.047400753306565</v>
       </c>
       <c r="F11">
-        <v>1.024537724365048</v>
+        <v>1.057443029345399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044991504606195</v>
+        <v>1.040852246217519</v>
       </c>
       <c r="J11">
-        <v>1.029652743963322</v>
+        <v>1.04561661437853</v>
       </c>
       <c r="K11">
-        <v>1.036259196066778</v>
+        <v>1.049671280515786</v>
       </c>
       <c r="L11">
-        <v>1.031345876689789</v>
+        <v>1.050926100624227</v>
       </c>
       <c r="M11">
-        <v>1.039011270687379</v>
+        <v>1.060932418808136</v>
       </c>
       <c r="N11">
-        <v>1.03111496896257</v>
+        <v>1.04710150990485</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9992246863053987</v>
+        <v>1.038872177066941</v>
       </c>
       <c r="D12">
-        <v>1.020954816178806</v>
+        <v>1.04598308176618</v>
       </c>
       <c r="E12">
-        <v>1.015867481074591</v>
+        <v>1.047219999848713</v>
       </c>
       <c r="F12">
-        <v>1.023594544721679</v>
+        <v>1.057244890507668</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044687812798196</v>
+        <v>1.04080571954087</v>
       </c>
       <c r="J12">
-        <v>1.02906189508316</v>
+        <v>1.045497494513787</v>
       </c>
       <c r="K12">
-        <v>1.03569127305487</v>
+        <v>1.049558049049363</v>
       </c>
       <c r="L12">
-        <v>1.03069687082775</v>
+        <v>1.050790423558678</v>
       </c>
       <c r="M12">
-        <v>1.038283253531218</v>
+        <v>1.060778922878274</v>
       </c>
       <c r="N12">
-        <v>1.030523281009227</v>
+        <v>1.046982220876235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994541379811557</v>
+        <v>1.038916197162017</v>
       </c>
       <c r="D13">
-        <v>1.021122666533374</v>
+        <v>1.046017029195234</v>
       </c>
       <c r="E13">
-        <v>1.016053419385461</v>
+        <v>1.047258762884667</v>
       </c>
       <c r="F13">
-        <v>1.023797223097084</v>
+        <v>1.057287381694981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04475315110981</v>
+        <v>1.040815706342028</v>
       </c>
       <c r="J13">
-        <v>1.029188912029354</v>
+        <v>1.045523045285605</v>
       </c>
       <c r="K13">
-        <v>1.035813363329953</v>
+        <v>1.049582337509433</v>
       </c>
       <c r="L13">
-        <v>1.030836367353789</v>
+        <v>1.050819523239379</v>
       </c>
       <c r="M13">
-        <v>1.038439726098376</v>
+        <v>1.060811843566518</v>
       </c>
       <c r="N13">
-        <v>1.030650478334053</v>
+        <v>1.04700780793308</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000204096396914</v>
+        <v>1.039060457492671</v>
       </c>
       <c r="D14">
-        <v>1.02167144481986</v>
+        <v>1.046128283169275</v>
       </c>
       <c r="E14">
-        <v>1.016661388973364</v>
+        <v>1.047385808027461</v>
       </c>
       <c r="F14">
-        <v>1.024459924024243</v>
+        <v>1.057426646502459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044966489232706</v>
+        <v>1.040848403316325</v>
       </c>
       <c r="J14">
-        <v>1.02960402911052</v>
+        <v>1.045606767515094</v>
       </c>
       <c r="K14">
-        <v>1.036212372244281</v>
+        <v>1.049661920736196</v>
       </c>
       <c r="L14">
-        <v>1.031292356669901</v>
+        <v>1.050914883935433</v>
       </c>
       <c r="M14">
-        <v>1.0389512320847</v>
+        <v>1.060919728666075</v>
       </c>
       <c r="N14">
-        <v>1.03106618492909</v>
+        <v>1.047091649057737</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000664758282089</v>
+        <v>1.039149360315635</v>
       </c>
       <c r="D15">
-        <v>1.022008655111749</v>
+        <v>1.046196847756561</v>
       </c>
       <c r="E15">
-        <v>1.017035012084182</v>
+        <v>1.047464111621941</v>
       </c>
       <c r="F15">
-        <v>1.024867178661825</v>
+        <v>1.057512482171503</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045097364023843</v>
+        <v>1.040868529453972</v>
       </c>
       <c r="J15">
-        <v>1.029858986992475</v>
+        <v>1.045658353990337</v>
       </c>
       <c r="K15">
-        <v>1.036457431391735</v>
+        <v>1.049710954781053</v>
       </c>
       <c r="L15">
-        <v>1.031572483680407</v>
+        <v>1.050973649060275</v>
       </c>
       <c r="M15">
-        <v>1.039265483657104</v>
+        <v>1.060986213997961</v>
       </c>
       <c r="N15">
-        <v>1.031321504880481</v>
+        <v>1.047143308791693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003324815868398</v>
+        <v>1.03966710607639</v>
       </c>
       <c r="D16">
-        <v>1.023957678614504</v>
+        <v>1.04659618663705</v>
       </c>
       <c r="E16">
-        <v>1.019195133007596</v>
+        <v>1.047920281436126</v>
       </c>
       <c r="F16">
-        <v>1.02722169638872</v>
+        <v>1.058012539699858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045850508953207</v>
+        <v>1.040985373244057</v>
       </c>
       <c r="J16">
-        <v>1.031330773081741</v>
+        <v>1.045958645886522</v>
       </c>
       <c r="K16">
-        <v>1.037871987235833</v>
+        <v>1.049996355993072</v>
       </c>
       <c r="L16">
-        <v>1.03319056537973</v>
+        <v>1.051315842855292</v>
       </c>
       <c r="M16">
-        <v>1.041080966859355</v>
+        <v>1.061373396163958</v>
       </c>
       <c r="N16">
-        <v>1.032795381074811</v>
+        <v>1.047444027136815</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004975125645307</v>
+        <v>1.039992130830015</v>
       </c>
       <c r="D17">
-        <v>1.025168419048862</v>
+        <v>1.046846911749844</v>
       </c>
       <c r="E17">
-        <v>1.020537578165428</v>
+        <v>1.048206783345737</v>
       </c>
       <c r="F17">
-        <v>1.028684916156018</v>
+        <v>1.058326613196068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046315464221634</v>
+        <v>1.041058402289376</v>
       </c>
       <c r="J17">
-        <v>1.032243450558611</v>
+        <v>1.046147041920525</v>
       </c>
       <c r="K17">
-        <v>1.038749090817987</v>
+        <v>1.050175381146101</v>
       </c>
       <c r="L17">
-        <v>1.034194843125351</v>
+        <v>1.051530627553268</v>
       </c>
       <c r="M17">
-        <v>1.042208017670341</v>
+        <v>1.061616447780289</v>
       </c>
       <c r="N17">
-        <v>1.033709354658383</v>
+        <v>1.047632690714795</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005931289258134</v>
+        <v>1.040181804137289</v>
       </c>
       <c r="D18">
-        <v>1.025870446407088</v>
+        <v>1.046993237875987</v>
       </c>
       <c r="E18">
-        <v>1.021316181808364</v>
+        <v>1.048374023663444</v>
       </c>
       <c r="F18">
-        <v>1.029533555849416</v>
+        <v>1.058509950642927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046584012078531</v>
+        <v>1.041100903523471</v>
       </c>
       <c r="J18">
-        <v>1.032772077277185</v>
+        <v>1.046256940818203</v>
       </c>
       <c r="K18">
-        <v>1.039257079787322</v>
+        <v>1.050279803223109</v>
       </c>
       <c r="L18">
-        <v>1.034776841895622</v>
+        <v>1.051655956189251</v>
       </c>
       <c r="M18">
-        <v>1.042861257111257</v>
+        <v>1.061758280872533</v>
       </c>
       <c r="N18">
-        <v>1.034238732087532</v>
+        <v>1.047742745681513</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006256239000625</v>
+        <v>1.040246493361172</v>
       </c>
       <c r="D19">
-        <v>1.026109119096992</v>
+        <v>1.0470431452233</v>
       </c>
       <c r="E19">
-        <v>1.021580924558181</v>
+        <v>1.048431070041666</v>
       </c>
       <c r="F19">
-        <v>1.029822110532665</v>
+        <v>1.058572488281721</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046675133746415</v>
+        <v>1.041115379146552</v>
       </c>
       <c r="J19">
-        <v>1.032951700756208</v>
+        <v>1.046294415271555</v>
       </c>
       <c r="K19">
-        <v>1.039429684821693</v>
+        <v>1.050315408365105</v>
       </c>
       <c r="L19">
-        <v>1.034974654540194</v>
+        <v>1.051698698169732</v>
       </c>
       <c r="M19">
-        <v>1.043083298855034</v>
+        <v>1.061806653296773</v>
       </c>
       <c r="N19">
-        <v>1.034418610652498</v>
+        <v>1.047780273352887</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004798731892405</v>
+        <v>1.039957249234713</v>
       </c>
       <c r="D20">
-        <v>1.025038952026341</v>
+        <v>1.046820002780209</v>
       </c>
       <c r="E20">
-        <v>1.020394006051597</v>
+        <v>1.04817603108595</v>
       </c>
       <c r="F20">
-        <v>1.028528428677438</v>
+        <v>1.058292901204313</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046265854194313</v>
+        <v>1.041050576823422</v>
       </c>
       <c r="J20">
-        <v>1.032145915589513</v>
+        <v>1.046126827694569</v>
       </c>
       <c r="K20">
-        <v>1.038655360900265</v>
+        <v>1.050156173458849</v>
       </c>
       <c r="L20">
-        <v>1.034087486268427</v>
+        <v>1.051507578174971</v>
       </c>
       <c r="M20">
-        <v>1.042087526959488</v>
+        <v>1.061590363885838</v>
       </c>
       <c r="N20">
-        <v>1.033611681178441</v>
+        <v>1.047612447782319</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9999835474384716</v>
+        <v>1.039017972402826</v>
       </c>
       <c r="D21">
-        <v>1.021510033403356</v>
+        <v>1.046095518030647</v>
       </c>
       <c r="E21">
-        <v>1.016482559114066</v>
+        <v>1.047348390794198</v>
       </c>
       <c r="F21">
-        <v>1.024264996012977</v>
+        <v>1.057385630229013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044903785428584</v>
+        <v>1.04083877894318</v>
       </c>
       <c r="J21">
-        <v>1.029481956543069</v>
+        <v>1.04558211289309</v>
       </c>
       <c r="K21">
-        <v>1.036095037674585</v>
+        <v>1.049638485416897</v>
       </c>
       <c r="L21">
-        <v>1.031158251101731</v>
+        <v>1.050886800448557</v>
       </c>
       <c r="M21">
-        <v>1.038800795182478</v>
+        <v>1.060887956323243</v>
       </c>
       <c r="N21">
-        <v>1.030943939004591</v>
+        <v>1.047066959423343</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9968947734460317</v>
+        <v>1.0384282517857</v>
       </c>
       <c r="D22">
-        <v>1.019251744043015</v>
+        <v>1.04564076135232</v>
       </c>
       <c r="E22">
-        <v>1.013981303878059</v>
+        <v>1.046829192900638</v>
       </c>
       <c r="F22">
-        <v>1.021538518566979</v>
+        <v>1.056816502179635</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044022619616923</v>
+        <v>1.040704759122327</v>
       </c>
       <c r="J22">
-        <v>1.027771865559937</v>
+        <v>1.045239734777878</v>
       </c>
       <c r="K22">
-        <v>1.034451230137044</v>
+        <v>1.049313001655866</v>
       </c>
       <c r="L22">
-        <v>1.029280785078003</v>
+        <v>1.050496939243843</v>
       </c>
       <c r="M22">
-        <v>1.036695037145242</v>
+        <v>1.060446924242666</v>
       </c>
       <c r="N22">
-        <v>1.029231419496113</v>
+        <v>1.046724095091935</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9985381654382145</v>
+        <v>1.038740793618827</v>
       </c>
       <c r="D23">
-        <v>1.020452746307899</v>
+        <v>1.04588176420571</v>
       </c>
       <c r="E23">
-        <v>1.015311352155234</v>
+        <v>1.047104317725875</v>
       </c>
       <c r="F23">
-        <v>1.022988343663992</v>
+        <v>1.057118082913965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044492135237731</v>
+        <v>1.040775886273976</v>
       </c>
       <c r="J23">
-        <v>1.028681830426337</v>
+        <v>1.045421225414875</v>
       </c>
       <c r="K23">
-        <v>1.035325944590223</v>
+        <v>1.049485545599805</v>
       </c>
       <c r="L23">
-        <v>1.030279537744042</v>
+        <v>1.050703569210607</v>
       </c>
       <c r="M23">
-        <v>1.03781515431526</v>
+        <v>1.0606806662882</v>
       </c>
       <c r="N23">
-        <v>1.030142676616997</v>
+        <v>1.046905843466454</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004878456485881</v>
+        <v>1.03997301044254</v>
       </c>
       <c r="D24">
-        <v>1.025097465490207</v>
+        <v>1.046832161530928</v>
       </c>
       <c r="E24">
-        <v>1.020458893753187</v>
+        <v>1.048189926311345</v>
       </c>
       <c r="F24">
-        <v>1.028599153540334</v>
+        <v>1.058308133758577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046288279018733</v>
+        <v>1.041054113109424</v>
       </c>
       <c r="J24">
-        <v>1.03218999893114</v>
+        <v>1.046135961600351</v>
       </c>
       <c r="K24">
-        <v>1.038697724558369</v>
+        <v>1.050164852586937</v>
       </c>
       <c r="L24">
-        <v>1.034136007873341</v>
+        <v>1.051517993047669</v>
       </c>
       <c r="M24">
-        <v>1.04214198433167</v>
+        <v>1.061602149873757</v>
       </c>
       <c r="N24">
-        <v>1.03365582712347</v>
+        <v>1.047621594659295</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011985080429608</v>
+        <v>1.041406526776317</v>
       </c>
       <c r="D25">
-        <v>1.030324391631046</v>
+        <v>1.047938270548629</v>
       </c>
       <c r="E25">
-        <v>1.026259823922821</v>
+        <v>1.049454752135476</v>
       </c>
       <c r="F25">
-        <v>1.034921708020097</v>
+        <v>1.059694750472749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048268936139678</v>
+        <v>1.041373235911633</v>
       </c>
       <c r="J25">
-        <v>1.036115722931139</v>
+        <v>1.046965787066412</v>
       </c>
       <c r="K25">
-        <v>1.04246951657703</v>
+        <v>1.050953135032693</v>
       </c>
       <c r="L25">
-        <v>1.038463721618329</v>
+        <v>1.052464977817491</v>
       </c>
       <c r="M25">
-        <v>1.047001060667637</v>
+        <v>1.062674031469271</v>
       </c>
       <c r="N25">
-        <v>1.037587126101836</v>
+        <v>1.048452598572701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042552731154559</v>
+        <v>1.017467014922242</v>
       </c>
       <c r="D2">
-        <v>1.048823031399251</v>
+        <v>1.034371124274321</v>
       </c>
       <c r="E2">
-        <v>1.050467562864365</v>
+        <v>1.030757941920576</v>
       </c>
       <c r="F2">
-        <v>1.060805173670996</v>
+        <v>1.039824083470942</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041624720762456</v>
+        <v>1.049769381624935</v>
       </c>
       <c r="J2">
-        <v>1.047627936952472</v>
+        <v>1.039137552918733</v>
       </c>
       <c r="K2">
-        <v>1.051581803157005</v>
+        <v>1.045371514796988</v>
       </c>
       <c r="L2">
-        <v>1.053221758389633</v>
+        <v>1.041804776305868</v>
       </c>
       <c r="M2">
-        <v>1.063530954634238</v>
+        <v>1.050755144396154</v>
       </c>
       <c r="N2">
-        <v>1.049115688787549</v>
+        <v>1.040613247434634</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043386590563229</v>
+        <v>1.021346698839101</v>
       </c>
       <c r="D3">
-        <v>1.049466880285963</v>
+        <v>1.037242747632577</v>
       </c>
       <c r="E3">
-        <v>1.051205231418866</v>
+        <v>1.033954137959207</v>
       </c>
       <c r="F3">
-        <v>1.061613989357125</v>
+        <v>1.043307472695176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041805540576699</v>
+        <v>1.050814792624625</v>
       </c>
       <c r="J3">
-        <v>1.04810885633163</v>
+        <v>1.041271876371423</v>
       </c>
       <c r="K3">
-        <v>1.052038209965285</v>
+        <v>1.047420284818531</v>
       </c>
       <c r="L3">
-        <v>1.053772071986228</v>
+        <v>1.044170247544919</v>
       </c>
       <c r="M3">
-        <v>1.064154281893712</v>
+        <v>1.053414663890197</v>
       </c>
       <c r="N3">
-        <v>1.049597291127387</v>
+        <v>1.042750601871425</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043926889628584</v>
+        <v>1.023812788154121</v>
       </c>
       <c r="D4">
-        <v>1.049884145871266</v>
+        <v>1.039071343098521</v>
       </c>
       <c r="E4">
-        <v>1.051683594754179</v>
+        <v>1.035991459311243</v>
       </c>
       <c r="F4">
-        <v>1.062138514721563</v>
+        <v>1.045527852484939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041921714711219</v>
+        <v>1.051471464847326</v>
       </c>
       <c r="J4">
-        <v>1.048420099927032</v>
+        <v>1.042626370544011</v>
       </c>
       <c r="K4">
-        <v>1.052333498719141</v>
+        <v>1.04872001622744</v>
       </c>
       <c r="L4">
-        <v>1.054128533716248</v>
+        <v>1.045674070226259</v>
       </c>
       <c r="M4">
-        <v>1.06455812664023</v>
+        <v>1.055106176146762</v>
       </c>
       <c r="N4">
-        <v>1.049908976724395</v>
+        <v>1.0441070195811</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044154205852373</v>
+        <v>1.024839239327024</v>
       </c>
       <c r="D5">
-        <v>1.050059718623298</v>
+        <v>1.039833198126792</v>
       </c>
       <c r="E5">
-        <v>1.051884946317846</v>
+        <v>1.036840777479008</v>
       </c>
       <c r="F5">
-        <v>1.062359302622904</v>
+        <v>1.046453486185584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041970355263864</v>
+        <v>1.051742879388803</v>
       </c>
       <c r="J5">
-        <v>1.048550958932383</v>
+        <v>1.043189598889537</v>
       </c>
       <c r="K5">
-        <v>1.052457627888393</v>
+        <v>1.049260354126654</v>
       </c>
       <c r="L5">
-        <v>1.054278477770087</v>
+        <v>1.046300026871851</v>
       </c>
       <c r="M5">
-        <v>1.064728023437885</v>
+        <v>1.055810437886362</v>
       </c>
       <c r="N5">
-        <v>1.050040021564543</v>
+        <v>1.04467104777548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044192383427835</v>
+        <v>1.025010990450134</v>
       </c>
       <c r="D6">
-        <v>1.050089207054955</v>
+        <v>1.039960718347301</v>
       </c>
       <c r="E6">
-        <v>1.051918768595119</v>
+        <v>1.036982967119831</v>
       </c>
       <c r="F6">
-        <v>1.062396390091922</v>
+        <v>1.046608452505056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041978510532655</v>
+        <v>1.051788180772121</v>
       </c>
       <c r="J6">
-        <v>1.048572931411175</v>
+        <v>1.043283808209974</v>
       </c>
       <c r="K6">
-        <v>1.05247846908274</v>
+        <v>1.049350727463263</v>
       </c>
       <c r="L6">
-        <v>1.054303659125754</v>
+        <v>1.0464047658805</v>
       </c>
       <c r="M6">
-        <v>1.064756556872338</v>
+        <v>1.055928290012113</v>
       </c>
       <c r="N6">
-        <v>1.050062025246776</v>
+        <v>1.044765390883957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043929926355648</v>
+        <v>1.02382654367491</v>
       </c>
       <c r="D7">
-        <v>1.049886491279021</v>
+        <v>1.039081549861656</v>
       </c>
       <c r="E7">
-        <v>1.051686284253109</v>
+        <v>1.036002835849902</v>
       </c>
       <c r="F7">
-        <v>1.062141463812766</v>
+        <v>1.045540251250374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041922365431727</v>
+        <v>1.051475109664823</v>
       </c>
       <c r="J7">
-        <v>1.048421848425232</v>
+        <v>1.042633920591049</v>
       </c>
       <c r="K7">
-        <v>1.052335157381066</v>
+        <v>1.048727259907266</v>
       </c>
       <c r="L7">
-        <v>1.054130536933964</v>
+        <v>1.045682458635613</v>
       </c>
       <c r="M7">
-        <v>1.06456039633835</v>
+        <v>1.055115613205337</v>
       </c>
       <c r="N7">
-        <v>1.049910727705663</v>
+        <v>1.044114580350071</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042834384332627</v>
+        <v>1.018787546407691</v>
       </c>
       <c r="D8">
-        <v>1.049040486962045</v>
+        <v>1.035347832151882</v>
       </c>
       <c r="E8">
-        <v>1.050716644388157</v>
+        <v>1.031844623786274</v>
       </c>
       <c r="F8">
-        <v>1.061078273728679</v>
+        <v>1.041008411691869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041686000741511</v>
+        <v>1.050126830535697</v>
       </c>
       <c r="J8">
-        <v>1.047790453376092</v>
+        <v>1.03986445237343</v>
       </c>
       <c r="K8">
-        <v>1.051736054804636</v>
+        <v>1.046069370957206</v>
       </c>
       <c r="L8">
-        <v>1.05340766149813</v>
+        <v>1.042609847685253</v>
       </c>
       <c r="M8">
-        <v>1.063741504306405</v>
+        <v>1.051660135800132</v>
       </c>
       <c r="N8">
-        <v>1.049278436003131</v>
+        <v>1.04134117916992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040909616565048</v>
+        <v>1.009553706491746</v>
       </c>
       <c r="D9">
-        <v>1.047554797481317</v>
+        <v>1.028533664962994</v>
       </c>
       <c r="E9">
-        <v>1.049016085175072</v>
+        <v>1.024271377554661</v>
       </c>
       <c r="F9">
-        <v>1.059213830494937</v>
+        <v>1.032754502450821</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041263184323331</v>
+        <v>1.047595525791661</v>
       </c>
       <c r="J9">
-        <v>1.046678347938671</v>
+        <v>1.034773551497248</v>
       </c>
       <c r="K9">
-        <v>1.050680137085036</v>
+        <v>1.041180165342566</v>
       </c>
       <c r="L9">
-        <v>1.052136779351701</v>
+        <v>1.036982570514871</v>
       </c>
       <c r="M9">
-        <v>1.062302495977007</v>
+        <v>1.045337608837633</v>
       </c>
       <c r="N9">
-        <v>1.048164751248428</v>
+        <v>1.036243048630559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039630387623587</v>
+        <v>1.003137433561839</v>
       </c>
       <c r="D10">
-        <v>1.046567863481803</v>
+        <v>1.023820281923252</v>
       </c>
       <c r="E10">
-        <v>1.047887921410671</v>
+        <v>1.019042818467851</v>
       </c>
       <c r="F10">
-        <v>1.057977065864419</v>
+        <v>1.027055676982715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040977107371949</v>
+        <v>1.045797602722291</v>
       </c>
       <c r="J10">
-        <v>1.045937356798702</v>
+        <v>1.031227122752559</v>
       </c>
       <c r="K10">
-        <v>1.049976124424662</v>
+        <v>1.03777237261655</v>
       </c>
       <c r="L10">
-        <v>1.051291576696712</v>
+        <v>1.033076555405517</v>
       </c>
       <c r="M10">
-        <v>1.061345937854756</v>
+        <v>1.040953031589019</v>
       </c>
       <c r="N10">
-        <v>1.047422707816048</v>
+        <v>1.032691583550272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039077426438807</v>
+        <v>1.000292112150934</v>
       </c>
       <c r="D11">
-        <v>1.046141369995753</v>
+        <v>1.021735866214185</v>
       </c>
       <c r="E11">
-        <v>1.047400753306565</v>
+        <v>1.016732764307037</v>
       </c>
       <c r="F11">
-        <v>1.057443029345399</v>
+        <v>1.024537724365048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040852246217519</v>
+        <v>1.044991504606194</v>
       </c>
       <c r="J11">
-        <v>1.04561661437853</v>
+        <v>1.029652743963321</v>
       </c>
       <c r="K11">
-        <v>1.049671280515786</v>
+        <v>1.036259196066778</v>
       </c>
       <c r="L11">
-        <v>1.050926100624227</v>
+        <v>1.031345876689789</v>
       </c>
       <c r="M11">
-        <v>1.060932418808136</v>
+        <v>1.039011270687379</v>
       </c>
       <c r="N11">
-        <v>1.04710150990485</v>
+        <v>1.03111496896257</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038872177066941</v>
+        <v>0.9992246863053985</v>
       </c>
       <c r="D12">
-        <v>1.04598308176618</v>
+        <v>1.020954816178806</v>
       </c>
       <c r="E12">
-        <v>1.047219999848713</v>
+        <v>1.01586748107459</v>
       </c>
       <c r="F12">
-        <v>1.057244890507668</v>
+        <v>1.023594544721678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04080571954087</v>
+        <v>1.044687812798196</v>
       </c>
       <c r="J12">
-        <v>1.045497494513787</v>
+        <v>1.02906189508316</v>
       </c>
       <c r="K12">
-        <v>1.049558049049363</v>
+        <v>1.035691273054869</v>
       </c>
       <c r="L12">
-        <v>1.050790423558678</v>
+        <v>1.03069687082775</v>
       </c>
       <c r="M12">
-        <v>1.060778922878274</v>
+        <v>1.038283253531217</v>
       </c>
       <c r="N12">
-        <v>1.046982220876235</v>
+        <v>1.030523281009226</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038916197162017</v>
+        <v>0.9994541379811553</v>
       </c>
       <c r="D13">
-        <v>1.046017029195234</v>
+        <v>1.021122666533373</v>
       </c>
       <c r="E13">
-        <v>1.047258762884667</v>
+        <v>1.01605341938546</v>
       </c>
       <c r="F13">
-        <v>1.057287381694981</v>
+        <v>1.023797223097083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040815706342028</v>
+        <v>1.04475315110981</v>
       </c>
       <c r="J13">
-        <v>1.045523045285605</v>
+        <v>1.029188912029353</v>
       </c>
       <c r="K13">
-        <v>1.049582337509433</v>
+        <v>1.035813363329952</v>
       </c>
       <c r="L13">
-        <v>1.050819523239379</v>
+        <v>1.030836367353789</v>
       </c>
       <c r="M13">
-        <v>1.060811843566518</v>
+        <v>1.038439726098376</v>
       </c>
       <c r="N13">
-        <v>1.04700780793308</v>
+        <v>1.030650478334053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039060457492671</v>
+        <v>1.000204096396913</v>
       </c>
       <c r="D14">
-        <v>1.046128283169275</v>
+        <v>1.021671444819859</v>
       </c>
       <c r="E14">
-        <v>1.047385808027461</v>
+        <v>1.016661388973364</v>
       </c>
       <c r="F14">
-        <v>1.057426646502459</v>
+        <v>1.024459924024243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040848403316325</v>
+        <v>1.044966489232705</v>
       </c>
       <c r="J14">
-        <v>1.045606767515094</v>
+        <v>1.02960402911052</v>
       </c>
       <c r="K14">
-        <v>1.049661920736196</v>
+        <v>1.036212372244281</v>
       </c>
       <c r="L14">
-        <v>1.050914883935433</v>
+        <v>1.031292356669901</v>
       </c>
       <c r="M14">
-        <v>1.060919728666075</v>
+        <v>1.038951232084699</v>
       </c>
       <c r="N14">
-        <v>1.047091649057737</v>
+        <v>1.031066184929089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039149360315635</v>
+        <v>1.000664758282088</v>
       </c>
       <c r="D15">
-        <v>1.046196847756561</v>
+        <v>1.022008655111748</v>
       </c>
       <c r="E15">
-        <v>1.047464111621941</v>
+        <v>1.017035012084181</v>
       </c>
       <c r="F15">
-        <v>1.057512482171503</v>
+        <v>1.024867178661824</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040868529453972</v>
+        <v>1.045097364023843</v>
       </c>
       <c r="J15">
-        <v>1.045658353990337</v>
+        <v>1.029858986992474</v>
       </c>
       <c r="K15">
-        <v>1.049710954781053</v>
+        <v>1.036457431391734</v>
       </c>
       <c r="L15">
-        <v>1.050973649060275</v>
+        <v>1.031572483680406</v>
       </c>
       <c r="M15">
-        <v>1.060986213997961</v>
+        <v>1.039265483657104</v>
       </c>
       <c r="N15">
-        <v>1.047143308791693</v>
+        <v>1.03132150488048</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03966710607639</v>
+        <v>1.003324815868398</v>
       </c>
       <c r="D16">
-        <v>1.04659618663705</v>
+        <v>1.023957678614504</v>
       </c>
       <c r="E16">
-        <v>1.047920281436126</v>
+        <v>1.019195133007596</v>
       </c>
       <c r="F16">
-        <v>1.058012539699858</v>
+        <v>1.027221696388721</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040985373244057</v>
+        <v>1.045850508953207</v>
       </c>
       <c r="J16">
-        <v>1.045958645886522</v>
+        <v>1.031330773081741</v>
       </c>
       <c r="K16">
-        <v>1.049996355993072</v>
+        <v>1.037871987235833</v>
       </c>
       <c r="L16">
-        <v>1.051315842855292</v>
+        <v>1.03319056537973</v>
       </c>
       <c r="M16">
-        <v>1.061373396163958</v>
+        <v>1.041080966859355</v>
       </c>
       <c r="N16">
-        <v>1.047444027136815</v>
+        <v>1.032795381074811</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039992130830015</v>
+        <v>1.004975125645308</v>
       </c>
       <c r="D17">
-        <v>1.046846911749844</v>
+        <v>1.025168419048863</v>
       </c>
       <c r="E17">
-        <v>1.048206783345737</v>
+        <v>1.020537578165428</v>
       </c>
       <c r="F17">
-        <v>1.058326613196068</v>
+        <v>1.028684916156019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041058402289376</v>
+        <v>1.046315464221634</v>
       </c>
       <c r="J17">
-        <v>1.046147041920525</v>
+        <v>1.032243450558611</v>
       </c>
       <c r="K17">
-        <v>1.050175381146101</v>
+        <v>1.038749090817988</v>
       </c>
       <c r="L17">
-        <v>1.051530627553268</v>
+        <v>1.034194843125352</v>
       </c>
       <c r="M17">
-        <v>1.061616447780289</v>
+        <v>1.042208017670341</v>
       </c>
       <c r="N17">
-        <v>1.047632690714795</v>
+        <v>1.033709354658384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040181804137289</v>
+        <v>1.005931289258134</v>
       </c>
       <c r="D18">
-        <v>1.046993237875987</v>
+        <v>1.025870446407088</v>
       </c>
       <c r="E18">
-        <v>1.048374023663444</v>
+        <v>1.021316181808364</v>
       </c>
       <c r="F18">
-        <v>1.058509950642927</v>
+        <v>1.029533555849417</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041100903523471</v>
+        <v>1.046584012078531</v>
       </c>
       <c r="J18">
-        <v>1.046256940818203</v>
+        <v>1.032772077277185</v>
       </c>
       <c r="K18">
-        <v>1.050279803223109</v>
+        <v>1.039257079787322</v>
       </c>
       <c r="L18">
-        <v>1.051655956189251</v>
+        <v>1.034776841895622</v>
       </c>
       <c r="M18">
-        <v>1.061758280872533</v>
+        <v>1.042861257111257</v>
       </c>
       <c r="N18">
-        <v>1.047742745681513</v>
+        <v>1.034238732087532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040246493361172</v>
+        <v>1.006256239000625</v>
       </c>
       <c r="D19">
-        <v>1.0470431452233</v>
+        <v>1.026109119096992</v>
       </c>
       <c r="E19">
-        <v>1.048431070041666</v>
+        <v>1.021580924558181</v>
       </c>
       <c r="F19">
-        <v>1.058572488281721</v>
+        <v>1.029822110532665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041115379146552</v>
+        <v>1.046675133746415</v>
       </c>
       <c r="J19">
-        <v>1.046294415271555</v>
+        <v>1.032951700756208</v>
       </c>
       <c r="K19">
-        <v>1.050315408365105</v>
+        <v>1.039429684821694</v>
       </c>
       <c r="L19">
-        <v>1.051698698169732</v>
+        <v>1.034974654540194</v>
       </c>
       <c r="M19">
-        <v>1.061806653296773</v>
+        <v>1.043083298855034</v>
       </c>
       <c r="N19">
-        <v>1.047780273352887</v>
+        <v>1.034418610652498</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039957249234713</v>
+        <v>1.004798731892405</v>
       </c>
       <c r="D20">
-        <v>1.046820002780209</v>
+        <v>1.025038952026341</v>
       </c>
       <c r="E20">
-        <v>1.04817603108595</v>
+        <v>1.020394006051597</v>
       </c>
       <c r="F20">
-        <v>1.058292901204313</v>
+        <v>1.028528428677439</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041050576823422</v>
+        <v>1.046265854194313</v>
       </c>
       <c r="J20">
-        <v>1.046126827694569</v>
+        <v>1.032145915589513</v>
       </c>
       <c r="K20">
-        <v>1.050156173458849</v>
+        <v>1.038655360900265</v>
       </c>
       <c r="L20">
-        <v>1.051507578174971</v>
+        <v>1.034087486268427</v>
       </c>
       <c r="M20">
-        <v>1.061590363885838</v>
+        <v>1.042087526959489</v>
       </c>
       <c r="N20">
-        <v>1.047612447782319</v>
+        <v>1.033611681178441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039017972402826</v>
+        <v>0.9999835474384716</v>
       </c>
       <c r="D21">
-        <v>1.046095518030647</v>
+        <v>1.021510033403356</v>
       </c>
       <c r="E21">
-        <v>1.047348390794198</v>
+        <v>1.016482559114066</v>
       </c>
       <c r="F21">
-        <v>1.057385630229013</v>
+        <v>1.024264996012978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04083877894318</v>
+        <v>1.044903785428584</v>
       </c>
       <c r="J21">
-        <v>1.04558211289309</v>
+        <v>1.029481956543069</v>
       </c>
       <c r="K21">
-        <v>1.049638485416897</v>
+        <v>1.036095037674584</v>
       </c>
       <c r="L21">
-        <v>1.050886800448557</v>
+        <v>1.031158251101731</v>
       </c>
       <c r="M21">
-        <v>1.060887956323243</v>
+        <v>1.038800795182478</v>
       </c>
       <c r="N21">
-        <v>1.047066959423343</v>
+        <v>1.030943939004591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0384282517857</v>
+        <v>0.9968947734460313</v>
       </c>
       <c r="D22">
-        <v>1.04564076135232</v>
+        <v>1.019251744043014</v>
       </c>
       <c r="E22">
-        <v>1.046829192900638</v>
+        <v>1.013981303878059</v>
       </c>
       <c r="F22">
-        <v>1.056816502179635</v>
+        <v>1.021538518566978</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040704759122327</v>
+        <v>1.044022619616923</v>
       </c>
       <c r="J22">
-        <v>1.045239734777878</v>
+        <v>1.027771865559937</v>
       </c>
       <c r="K22">
-        <v>1.049313001655866</v>
+        <v>1.034451230137044</v>
       </c>
       <c r="L22">
-        <v>1.050496939243843</v>
+        <v>1.029280785078003</v>
       </c>
       <c r="M22">
-        <v>1.060446924242666</v>
+        <v>1.036695037145242</v>
       </c>
       <c r="N22">
-        <v>1.046724095091935</v>
+        <v>1.029231419496112</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038740793618827</v>
+        <v>0.9985381654382147</v>
       </c>
       <c r="D23">
-        <v>1.04588176420571</v>
+        <v>1.0204527463079</v>
       </c>
       <c r="E23">
-        <v>1.047104317725875</v>
+        <v>1.015311352155234</v>
       </c>
       <c r="F23">
-        <v>1.057118082913965</v>
+        <v>1.022988343663992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040775886273976</v>
+        <v>1.044492135237731</v>
       </c>
       <c r="J23">
-        <v>1.045421225414875</v>
+        <v>1.028681830426337</v>
       </c>
       <c r="K23">
-        <v>1.049485545599805</v>
+        <v>1.035325944590223</v>
       </c>
       <c r="L23">
-        <v>1.050703569210607</v>
+        <v>1.030279537744042</v>
       </c>
       <c r="M23">
-        <v>1.0606806662882</v>
+        <v>1.03781515431526</v>
       </c>
       <c r="N23">
-        <v>1.046905843466454</v>
+        <v>1.030142676616998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03997301044254</v>
+        <v>1.004878456485881</v>
       </c>
       <c r="D24">
-        <v>1.046832161530928</v>
+        <v>1.025097465490206</v>
       </c>
       <c r="E24">
-        <v>1.048189926311345</v>
+        <v>1.020458893753186</v>
       </c>
       <c r="F24">
-        <v>1.058308133758577</v>
+        <v>1.028599153540334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041054113109424</v>
+        <v>1.046288279018732</v>
       </c>
       <c r="J24">
-        <v>1.046135961600351</v>
+        <v>1.032189998931139</v>
       </c>
       <c r="K24">
-        <v>1.050164852586937</v>
+        <v>1.038697724558368</v>
       </c>
       <c r="L24">
-        <v>1.051517993047669</v>
+        <v>1.03413600787334</v>
       </c>
       <c r="M24">
-        <v>1.061602149873757</v>
+        <v>1.04214198433167</v>
       </c>
       <c r="N24">
-        <v>1.047621594659295</v>
+        <v>1.033655827123469</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041406526776317</v>
+        <v>1.011985080429608</v>
       </c>
       <c r="D25">
-        <v>1.047938270548629</v>
+        <v>1.030324391631046</v>
       </c>
       <c r="E25">
-        <v>1.049454752135476</v>
+        <v>1.026259823922822</v>
       </c>
       <c r="F25">
-        <v>1.059694750472749</v>
+        <v>1.034921708020098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041373235911633</v>
+        <v>1.048268936139678</v>
       </c>
       <c r="J25">
-        <v>1.046965787066412</v>
+        <v>1.036115722931139</v>
       </c>
       <c r="K25">
-        <v>1.050953135032693</v>
+        <v>1.04246951657703</v>
       </c>
       <c r="L25">
-        <v>1.052464977817491</v>
+        <v>1.03846372161833</v>
       </c>
       <c r="M25">
-        <v>1.062674031469271</v>
+        <v>1.047001060667638</v>
       </c>
       <c r="N25">
-        <v>1.048452598572701</v>
+        <v>1.037587126101836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017467014922242</v>
+        <v>0.9910330130785168</v>
       </c>
       <c r="D2">
-        <v>1.034371124274321</v>
+        <v>1.013874717657534</v>
       </c>
       <c r="E2">
-        <v>1.030757941920576</v>
-      </c>
-      <c r="F2">
-        <v>1.039824083470942</v>
+        <v>0.9987697940379551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049769381624935</v>
+        <v>1.040521510006893</v>
       </c>
       <c r="J2">
-        <v>1.039137552918733</v>
+        <v>1.013485273488959</v>
       </c>
       <c r="K2">
-        <v>1.045371514796988</v>
+        <v>1.025144081439719</v>
       </c>
       <c r="L2">
-        <v>1.041804776305868</v>
-      </c>
-      <c r="M2">
-        <v>1.050755144396154</v>
+        <v>1.010246294231643</v>
       </c>
       <c r="N2">
-        <v>1.040613247434634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008560188865272</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028849120158499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021346698839101</v>
+        <v>0.9944453530781652</v>
       </c>
       <c r="D3">
-        <v>1.037242747632577</v>
+        <v>1.016003218683216</v>
       </c>
       <c r="E3">
-        <v>1.033954137959207</v>
-      </c>
-      <c r="F3">
-        <v>1.043307472695176</v>
+        <v>1.001403627773831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050814792624625</v>
+        <v>1.04095668559385</v>
       </c>
       <c r="J3">
-        <v>1.041271876371423</v>
+        <v>1.015088597330004</v>
       </c>
       <c r="K3">
-        <v>1.047420284818531</v>
+        <v>1.026435349605045</v>
       </c>
       <c r="L3">
-        <v>1.044170247544919</v>
-      </c>
-      <c r="M3">
-        <v>1.053414663890197</v>
+        <v>1.012018580369635</v>
       </c>
       <c r="N3">
-        <v>1.042750601871425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009096644700451</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.029759481766333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023812788154121</v>
+        <v>0.9966174565101436</v>
       </c>
       <c r="D4">
-        <v>1.039071343098521</v>
+        <v>1.01736116551804</v>
       </c>
       <c r="E4">
-        <v>1.035991459311243</v>
-      </c>
-      <c r="F4">
-        <v>1.045527852484939</v>
+        <v>1.003086296351587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051471464847326</v>
+        <v>1.041223824677296</v>
       </c>
       <c r="J4">
-        <v>1.042626370544011</v>
+        <v>1.01610808566416</v>
       </c>
       <c r="K4">
-        <v>1.04872001622744</v>
+        <v>1.027254476567249</v>
       </c>
       <c r="L4">
-        <v>1.045674070226259</v>
-      </c>
-      <c r="M4">
-        <v>1.055106176146762</v>
+        <v>1.013147614669996</v>
       </c>
       <c r="N4">
-        <v>1.0441070195811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009437732421538</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030339596919898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024839239327024</v>
+        <v>0.9975247191021271</v>
       </c>
       <c r="D5">
-        <v>1.039833198126792</v>
+        <v>1.01793114186577</v>
       </c>
       <c r="E5">
-        <v>1.036840777479008</v>
-      </c>
-      <c r="F5">
-        <v>1.046453486185584</v>
+        <v>1.003790849946435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051742879388803</v>
+        <v>1.041334276244894</v>
       </c>
       <c r="J5">
-        <v>1.043189598889537</v>
+        <v>1.016534878037799</v>
       </c>
       <c r="K5">
-        <v>1.049260354126654</v>
+        <v>1.027598567110435</v>
       </c>
       <c r="L5">
-        <v>1.046300026871851</v>
-      </c>
-      <c r="M5">
-        <v>1.055810437886362</v>
+        <v>1.013620279485952</v>
       </c>
       <c r="N5">
-        <v>1.04467104777548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009580693423267</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03059016631794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025010990450134</v>
+        <v>0.9976795741672432</v>
       </c>
       <c r="D6">
-        <v>1.039960718347301</v>
+        <v>1.018030995720541</v>
       </c>
       <c r="E6">
-        <v>1.036982967119831</v>
-      </c>
-      <c r="F6">
-        <v>1.046608452505056</v>
+        <v>1.003911531622824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051788180772121</v>
+        <v>1.041354539147078</v>
       </c>
       <c r="J6">
-        <v>1.043283808209974</v>
+        <v>1.016609224858994</v>
       </c>
       <c r="K6">
-        <v>1.049350727463263</v>
+        <v>1.027660483313315</v>
       </c>
       <c r="L6">
-        <v>1.0464047658805</v>
-      </c>
-      <c r="M6">
-        <v>1.055928290012113</v>
+        <v>1.013702045966532</v>
       </c>
       <c r="N6">
-        <v>1.044765390883957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009605811691745</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030642803678336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02382654367491</v>
+        <v>0.996637671596859</v>
       </c>
       <c r="D7">
-        <v>1.039081549861656</v>
+        <v>1.017380618558902</v>
       </c>
       <c r="E7">
-        <v>1.036002835849902</v>
-      </c>
-      <c r="F7">
-        <v>1.045540251250374</v>
+        <v>1.003102909143883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051475109664823</v>
+        <v>1.041230449754813</v>
       </c>
       <c r="J7">
-        <v>1.042633920591049</v>
+        <v>1.016121656554851</v>
       </c>
       <c r="K7">
-        <v>1.048727259907266</v>
+        <v>1.027270772033574</v>
       </c>
       <c r="L7">
-        <v>1.045682458635613</v>
-      </c>
-      <c r="M7">
-        <v>1.055115613205337</v>
+        <v>1.013161039563259</v>
       </c>
       <c r="N7">
-        <v>1.044114580350071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009442863445524</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030371488782198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018787546407691</v>
+        <v>0.9922037828063018</v>
       </c>
       <c r="D8">
-        <v>1.035347832151882</v>
+        <v>1.01461264422509</v>
       </c>
       <c r="E8">
-        <v>1.031844623786274</v>
-      </c>
-      <c r="F8">
-        <v>1.041008411691869</v>
+        <v>0.9996733557831611</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050126830535697</v>
+        <v>1.040677908789817</v>
       </c>
       <c r="J8">
-        <v>1.03986445237343</v>
+        <v>1.01404057946778</v>
       </c>
       <c r="K8">
-        <v>1.046069370957206</v>
+        <v>1.025598250118345</v>
       </c>
       <c r="L8">
-        <v>1.042609847685253</v>
-      </c>
-      <c r="M8">
-        <v>1.051660135800132</v>
+        <v>1.01085775349064</v>
       </c>
       <c r="N8">
-        <v>1.04134117916992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008746758231916</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029193468814166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009553706491746</v>
+        <v>0.9840917959352159</v>
       </c>
       <c r="D9">
-        <v>1.028533664962994</v>
+        <v>1.009563973948608</v>
       </c>
       <c r="E9">
-        <v>1.024271377554661</v>
-      </c>
-      <c r="F9">
-        <v>1.032754502450821</v>
+        <v>0.9934470974642506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047595525791661</v>
+        <v>1.039584133981916</v>
       </c>
       <c r="J9">
-        <v>1.034773551497248</v>
+        <v>1.010219097153499</v>
       </c>
       <c r="K9">
-        <v>1.041180165342566</v>
+        <v>1.022503764957962</v>
       </c>
       <c r="L9">
-        <v>1.036982570514871</v>
-      </c>
-      <c r="M9">
-        <v>1.045337608837633</v>
+        <v>1.00664739323605</v>
       </c>
       <c r="N9">
-        <v>1.036243048630559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007467380137224</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027002193030357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003137433561839</v>
+        <v>0.9784777269415501</v>
       </c>
       <c r="D10">
-        <v>1.023820281923252</v>
+        <v>1.006092702701231</v>
       </c>
       <c r="E10">
-        <v>1.019042818467851</v>
-      </c>
-      <c r="F10">
-        <v>1.027055676982715</v>
+        <v>0.9891742676477812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045797602722291</v>
+        <v>1.038779147360238</v>
       </c>
       <c r="J10">
-        <v>1.031227122752559</v>
+        <v>1.007572062636785</v>
       </c>
       <c r="K10">
-        <v>1.03777237261655</v>
+        <v>1.020352816025635</v>
       </c>
       <c r="L10">
-        <v>1.033076555405517</v>
-      </c>
-      <c r="M10">
-        <v>1.040953031589019</v>
+        <v>1.003741774260918</v>
       </c>
       <c r="N10">
-        <v>1.032691583550272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00658145627019</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025498337561444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000292112150934</v>
+        <v>0.9760033277627159</v>
       </c>
       <c r="D11">
-        <v>1.021735866214185</v>
+        <v>1.004576173714452</v>
       </c>
       <c r="E11">
-        <v>1.016732764307037</v>
-      </c>
-      <c r="F11">
-        <v>1.024537724365048</v>
+        <v>0.9873013402839547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044991504606194</v>
+        <v>1.038417836598621</v>
       </c>
       <c r="J11">
-        <v>1.029652743963321</v>
+        <v>1.00640962955408</v>
       </c>
       <c r="K11">
-        <v>1.036259196066778</v>
+        <v>1.019412303038387</v>
       </c>
       <c r="L11">
-        <v>1.031345876689789</v>
-      </c>
-      <c r="M11">
-        <v>1.039011270687379</v>
+        <v>1.002466774968226</v>
       </c>
       <c r="N11">
-        <v>1.03111496896257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006193328354398</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024866628011038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9992246863053985</v>
+        <v>0.9750704162286864</v>
       </c>
       <c r="D12">
-        <v>1.020954816178806</v>
+        <v>1.004000836545438</v>
       </c>
       <c r="E12">
-        <v>1.01586748107459</v>
-      </c>
-      <c r="F12">
-        <v>1.023594544721678</v>
+        <v>0.9865958486065266</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044687812798196</v>
+        <v>1.03827736315336</v>
       </c>
       <c r="J12">
-        <v>1.02906189508316</v>
+        <v>1.00596864135558</v>
       </c>
       <c r="K12">
-        <v>1.035691273054869</v>
+        <v>1.019051786157764</v>
       </c>
       <c r="L12">
-        <v>1.03069687082775</v>
-      </c>
-      <c r="M12">
-        <v>1.038283253531217</v>
+        <v>1.001984436868993</v>
       </c>
       <c r="N12">
-        <v>1.030523281009226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006045607217944</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024611724251662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9994541379811553</v>
+        <v>0.9752698371845303</v>
       </c>
       <c r="D13">
-        <v>1.021122666533373</v>
+        <v>1.004122915719905</v>
       </c>
       <c r="E13">
-        <v>1.01605341938546</v>
-      </c>
-      <c r="F13">
-        <v>1.023797223097083</v>
+        <v>0.9867464439447324</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04475315110981</v>
+        <v>1.038306959613678</v>
       </c>
       <c r="J13">
-        <v>1.029188912029353</v>
+        <v>1.006062390540797</v>
       </c>
       <c r="K13">
-        <v>1.035813363329952</v>
+        <v>1.019127781159986</v>
       </c>
       <c r="L13">
-        <v>1.030836367353789</v>
-      </c>
-      <c r="M13">
-        <v>1.038439726098376</v>
+        <v>1.002087139487499</v>
       </c>
       <c r="N13">
-        <v>1.030650478334053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00607691470815</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024662928787985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000204096396913</v>
+        <v>0.9759259261533569</v>
       </c>
       <c r="D14">
-        <v>1.021671444819859</v>
+        <v>1.004528050767627</v>
       </c>
       <c r="E14">
-        <v>1.016661388973364</v>
-      </c>
-      <c r="F14">
-        <v>1.024459924024243</v>
+        <v>0.987242715287472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044966489232705</v>
+        <v>1.038405999055428</v>
       </c>
       <c r="J14">
-        <v>1.02960402911052</v>
+        <v>1.006372820588409</v>
       </c>
       <c r="K14">
-        <v>1.036212372244281</v>
+        <v>1.019381934411673</v>
       </c>
       <c r="L14">
-        <v>1.031292356669901</v>
-      </c>
-      <c r="M14">
-        <v>1.038951232084699</v>
+        <v>1.002426583935474</v>
       </c>
       <c r="N14">
-        <v>1.031066184929089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006180957179401</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024844072934735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000664758282088</v>
+        <v>0.9763311812078802</v>
       </c>
       <c r="D15">
-        <v>1.022008655111748</v>
+        <v>1.004780137686519</v>
       </c>
       <c r="E15">
-        <v>1.017035012084181</v>
-      </c>
-      <c r="F15">
-        <v>1.024867178661824</v>
+        <v>0.9875497332715137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045097364023843</v>
+        <v>1.038467963324377</v>
       </c>
       <c r="J15">
-        <v>1.029858986992474</v>
+        <v>1.006565595241499</v>
       </c>
       <c r="K15">
-        <v>1.036457431391734</v>
+        <v>1.019541037413432</v>
       </c>
       <c r="L15">
-        <v>1.031572483680406</v>
-      </c>
-      <c r="M15">
-        <v>1.039265483657104</v>
+        <v>1.002637068365124</v>
       </c>
       <c r="N15">
-        <v>1.03132150488048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006245756665119</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024962521153406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003324815868398</v>
+        <v>0.9786592561867903</v>
       </c>
       <c r="D16">
-        <v>1.023957678614504</v>
+        <v>1.006219107739153</v>
       </c>
       <c r="E16">
-        <v>1.019195133007596</v>
-      </c>
-      <c r="F16">
-        <v>1.027221696388721</v>
+        <v>0.9893143849101708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045850508953207</v>
+        <v>1.038814215835778</v>
       </c>
       <c r="J16">
-        <v>1.031330773081741</v>
+        <v>1.007666343358919</v>
       </c>
       <c r="K16">
-        <v>1.037871987235833</v>
+        <v>1.020440624362877</v>
       </c>
       <c r="L16">
-        <v>1.03319056537973</v>
-      </c>
-      <c r="M16">
-        <v>1.041080966859355</v>
+        <v>1.003842035429256</v>
       </c>
       <c r="N16">
-        <v>1.032795381074811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006614564043432</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025601790800967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004975125645308</v>
+        <v>0.9801049637802789</v>
       </c>
       <c r="D17">
-        <v>1.025168419048863</v>
+        <v>1.007114148182509</v>
       </c>
       <c r="E17">
-        <v>1.020537578165428</v>
-      </c>
-      <c r="F17">
-        <v>1.028684916156019</v>
+        <v>0.9904126164634427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046315464221634</v>
+        <v>1.039026267938005</v>
       </c>
       <c r="J17">
-        <v>1.032243450558611</v>
+        <v>1.008349747095011</v>
       </c>
       <c r="K17">
-        <v>1.038749090817988</v>
+        <v>1.020998579911881</v>
       </c>
       <c r="L17">
-        <v>1.034194843125352</v>
-      </c>
-      <c r="M17">
-        <v>1.042208017670341</v>
+        <v>1.004590861748666</v>
       </c>
       <c r="N17">
-        <v>1.033709354658384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006843537563632</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.025998920844023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005931289258134</v>
+        <v>0.9809373718953971</v>
       </c>
       <c r="D18">
-        <v>1.025870446407088</v>
+        <v>1.007625374962299</v>
       </c>
       <c r="E18">
-        <v>1.021316181808364</v>
-      </c>
-      <c r="F18">
-        <v>1.029533555849417</v>
+        <v>0.9910450451186755</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046584012078531</v>
+        <v>1.03914456496197</v>
       </c>
       <c r="J18">
-        <v>1.032772077277185</v>
+        <v>1.00874040264763</v>
       </c>
       <c r="K18">
-        <v>1.039257079787322</v>
+        <v>1.021313769955573</v>
       </c>
       <c r="L18">
-        <v>1.034776841895622</v>
-      </c>
-      <c r="M18">
-        <v>1.042861257111257</v>
+        <v>1.005020164047768</v>
       </c>
       <c r="N18">
-        <v>1.034238732087532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006973936489245</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026209978046396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006256239000625</v>
+        <v>0.9812247314943202</v>
       </c>
       <c r="D19">
-        <v>1.026109119096992</v>
+        <v>1.00780553239723</v>
       </c>
       <c r="E19">
-        <v>1.021580924558181</v>
-      </c>
-      <c r="F19">
-        <v>1.029822110532665</v>
+        <v>0.9912640990229669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046675133746415</v>
+        <v>1.039187334440999</v>
       </c>
       <c r="J19">
-        <v>1.032951700756208</v>
+        <v>1.008877404744436</v>
       </c>
       <c r="K19">
-        <v>1.039429684821694</v>
+        <v>1.021427050742029</v>
       </c>
       <c r="L19">
-        <v>1.034974654540194</v>
-      </c>
-      <c r="M19">
-        <v>1.043083298855034</v>
+        <v>1.005169985352421</v>
       </c>
       <c r="N19">
-        <v>1.034418610652498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007020049460554</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026296554616878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004798731892405</v>
+        <v>0.9799499477901878</v>
       </c>
       <c r="D20">
-        <v>1.025038952026341</v>
+        <v>1.007017766204104</v>
       </c>
       <c r="E20">
-        <v>1.020394006051597</v>
-      </c>
-      <c r="F20">
-        <v>1.028528428677439</v>
+        <v>0.9902947108645933</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046265854194313</v>
+        <v>1.039003431835209</v>
       </c>
       <c r="J20">
-        <v>1.032145915589513</v>
+        <v>1.008276260549367</v>
       </c>
       <c r="K20">
-        <v>1.038655360900265</v>
+        <v>1.020938328964599</v>
       </c>
       <c r="L20">
-        <v>1.034087486268427</v>
-      </c>
-      <c r="M20">
-        <v>1.042087526959489</v>
+        <v>1.004510390173803</v>
       </c>
       <c r="N20">
-        <v>1.033611681178441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006818877865848</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025954966092698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9999835474384716</v>
+        <v>0.9757390113412527</v>
       </c>
       <c r="D21">
-        <v>1.021510033403356</v>
+        <v>1.004417468859287</v>
       </c>
       <c r="E21">
-        <v>1.016482559114066</v>
-      </c>
-      <c r="F21">
-        <v>1.024264996012978</v>
+        <v>0.9871021234792128</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044903785428584</v>
+        <v>1.038380666792575</v>
       </c>
       <c r="J21">
-        <v>1.029481956543069</v>
+        <v>1.006287299758779</v>
       </c>
       <c r="K21">
-        <v>1.036095037674584</v>
+        <v>1.019315631464126</v>
       </c>
       <c r="L21">
-        <v>1.031158251101731</v>
-      </c>
-      <c r="M21">
-        <v>1.038800795182478</v>
+        <v>1.002332040596952</v>
       </c>
       <c r="N21">
-        <v>1.030943939004591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006152832927784</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024810894860072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968947734460313</v>
+        <v>0.9730349264007829</v>
       </c>
       <c r="D22">
-        <v>1.019251744043014</v>
+        <v>1.002746589071428</v>
       </c>
       <c r="E22">
-        <v>1.013981303878059</v>
-      </c>
-      <c r="F22">
-        <v>1.021538518566978</v>
+        <v>0.9850590671993519</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044022619616923</v>
+        <v>1.037967528207902</v>
       </c>
       <c r="J22">
-        <v>1.027771865559937</v>
+        <v>1.005006024303237</v>
       </c>
       <c r="K22">
-        <v>1.034451230137044</v>
+        <v>1.018263831152583</v>
       </c>
       <c r="L22">
-        <v>1.029280785078003</v>
-      </c>
-      <c r="M22">
-        <v>1.036695037145242</v>
+        <v>1.000932433362619</v>
       </c>
       <c r="N22">
-        <v>1.029231419496112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005723090187135</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024053515331337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9985381654382147</v>
+        <v>0.9744659318453652</v>
       </c>
       <c r="D23">
-        <v>1.0204527463079</v>
+        <v>1.003624518539275</v>
       </c>
       <c r="E23">
-        <v>1.015311352155234</v>
-      </c>
-      <c r="F23">
-        <v>1.022988343663992</v>
+        <v>0.9861384726774968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044492135237731</v>
+        <v>1.038183674759438</v>
       </c>
       <c r="J23">
-        <v>1.028681830426337</v>
+        <v>1.005680618808666</v>
       </c>
       <c r="K23">
-        <v>1.035325944590223</v>
+        <v>1.018813357902023</v>
       </c>
       <c r="L23">
-        <v>1.030279537744042</v>
-      </c>
-      <c r="M23">
-        <v>1.03781515431526</v>
+        <v>1.001670312885236</v>
       </c>
       <c r="N23">
-        <v>1.030142676616998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005948704234558</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024432297973673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004878456485881</v>
+        <v>0.9800080443984971</v>
       </c>
       <c r="D24">
-        <v>1.025097465490206</v>
+        <v>1.007044212091867</v>
       </c>
       <c r="E24">
-        <v>1.020458893753186</v>
-      </c>
-      <c r="F24">
-        <v>1.028599153540334</v>
+        <v>0.9903373064726827</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046288279018732</v>
+        <v>1.039006295078475</v>
       </c>
       <c r="J24">
-        <v>1.032189998931139</v>
+        <v>1.008297996942052</v>
       </c>
       <c r="K24">
-        <v>1.038697724558368</v>
+        <v>1.020948742533936</v>
       </c>
       <c r="L24">
-        <v>1.03413600787334</v>
-      </c>
-      <c r="M24">
-        <v>1.04214198433167</v>
+        <v>1.004536261667539</v>
       </c>
       <c r="N24">
-        <v>1.033655827123469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00682514548256</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025934554560221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011985080429608</v>
+        <v>0.9862370717897035</v>
       </c>
       <c r="D25">
-        <v>1.030324391631046</v>
+        <v>1.010906095624462</v>
       </c>
       <c r="E25">
-        <v>1.026259823922822</v>
-      </c>
-      <c r="F25">
-        <v>1.034921708020098</v>
+        <v>0.9950892088079634</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048268936139678</v>
+        <v>1.039888303274587</v>
       </c>
       <c r="J25">
-        <v>1.036115722931139</v>
+        <v>1.011236659620108</v>
       </c>
       <c r="K25">
-        <v>1.04246951657703</v>
+        <v>1.023337435152026</v>
       </c>
       <c r="L25">
-        <v>1.03846372161833</v>
-      </c>
-      <c r="M25">
-        <v>1.047001060667638</v>
+        <v>1.007764239850185</v>
       </c>
       <c r="N25">
-        <v>1.037587126101836</v>
+        <v>1.007809077013649</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027620627405033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9910330130785168</v>
+        <v>0.9917348192101884</v>
       </c>
       <c r="D2">
-        <v>1.013874717657534</v>
+        <v>1.014390167129845</v>
       </c>
       <c r="E2">
-        <v>0.9987697940379551</v>
+        <v>0.9993756144142285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040521510006893</v>
+        <v>1.040734631243575</v>
       </c>
       <c r="J2">
-        <v>1.013485273488959</v>
+        <v>1.014165582396452</v>
       </c>
       <c r="K2">
-        <v>1.025144081439719</v>
+        <v>1.025652599279717</v>
       </c>
       <c r="L2">
-        <v>1.010246294231643</v>
+        <v>1.010843654778816</v>
       </c>
       <c r="N2">
-        <v>1.008560188865272</v>
+        <v>1.011068256844286</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028849120158499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029217582546941</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019011771654546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9944453530781652</v>
+        <v>0.9950339695038849</v>
       </c>
       <c r="D3">
-        <v>1.016003218683216</v>
+        <v>1.016374867539591</v>
       </c>
       <c r="E3">
-        <v>1.001403627773831</v>
+        <v>1.001912088157679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04095668559385</v>
+        <v>1.041110411780641</v>
       </c>
       <c r="J3">
-        <v>1.015088597330004</v>
+        <v>1.015660935138099</v>
       </c>
       <c r="K3">
-        <v>1.026435349605045</v>
+        <v>1.026802429828848</v>
       </c>
       <c r="L3">
-        <v>1.012018580369635</v>
+        <v>1.012520561782119</v>
       </c>
       <c r="N3">
-        <v>1.009096644700451</v>
+        <v>1.011466434805551</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.029759481766333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030027656145244</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019217260591835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966174565101436</v>
+        <v>0.9971347864369284</v>
       </c>
       <c r="D4">
-        <v>1.01736116551804</v>
+        <v>1.017641763425012</v>
       </c>
       <c r="E4">
-        <v>1.003086296351587</v>
+        <v>1.00353332472597</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041223824677296</v>
+        <v>1.041339882429053</v>
       </c>
       <c r="J4">
-        <v>1.01610808566416</v>
+        <v>1.016612069731287</v>
       </c>
       <c r="K4">
-        <v>1.027254476567249</v>
+        <v>1.027531830362513</v>
       </c>
       <c r="L4">
-        <v>1.013147614669996</v>
+        <v>1.013589291870302</v>
       </c>
       <c r="N4">
-        <v>1.009437732421538</v>
+        <v>1.011719708697943</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030339596919898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030544406949755</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01934518698421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9975247191021271</v>
+        <v>0.998012460728984</v>
       </c>
       <c r="D5">
-        <v>1.01793114186577</v>
+        <v>1.018173872882954</v>
       </c>
       <c r="E5">
-        <v>1.003790849946435</v>
+        <v>1.004212355439624</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041334276244894</v>
+        <v>1.041434653502023</v>
       </c>
       <c r="J5">
-        <v>1.016534878037799</v>
+        <v>1.017010410589337</v>
       </c>
       <c r="K5">
-        <v>1.027598567110435</v>
+        <v>1.027838565575739</v>
       </c>
       <c r="L5">
-        <v>1.013620279485952</v>
+        <v>1.014036874262246</v>
       </c>
       <c r="N5">
-        <v>1.009580693423267</v>
+        <v>1.011825924761511</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03059016631794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030769272134378</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019398777853864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9976795741672432</v>
+        <v>0.998162290526643</v>
       </c>
       <c r="D6">
-        <v>1.018030995720541</v>
+        <v>1.018267330664341</v>
       </c>
       <c r="E6">
-        <v>1.003911531622824</v>
+        <v>1.004328700936853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041354539147078</v>
+        <v>1.041452266211007</v>
       </c>
       <c r="J6">
-        <v>1.016609224858994</v>
+        <v>1.017079919658082</v>
       </c>
       <c r="K6">
-        <v>1.027660483313315</v>
+        <v>1.027894169745435</v>
       </c>
       <c r="L6">
-        <v>1.013702045966532</v>
+        <v>1.014114377430184</v>
       </c>
       <c r="N6">
-        <v>1.009605811691745</v>
+        <v>1.011844631871873</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030642803678336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030818313795275</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019408925859792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.996637671596859</v>
+        <v>0.9971619603934259</v>
       </c>
       <c r="D7">
-        <v>1.017380618558902</v>
+        <v>1.017665668106116</v>
       </c>
       <c r="E7">
-        <v>1.003102909143883</v>
+        <v>1.003556097287885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041230449754813</v>
+        <v>1.041348424800633</v>
       </c>
       <c r="J7">
-        <v>1.016121656554851</v>
+        <v>1.016632425796837</v>
       </c>
       <c r="K7">
-        <v>1.027270772033574</v>
+        <v>1.027552527277779</v>
       </c>
       <c r="L7">
-        <v>1.013161039563259</v>
+        <v>1.01360880488349</v>
       </c>
       <c r="N7">
-        <v>1.009442863445524</v>
+        <v>1.011751446680918</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030371488782198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030581407062448</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019350583491475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9922037828063018</v>
+        <v>0.9928899746750615</v>
       </c>
       <c r="D8">
-        <v>1.01461264422509</v>
+        <v>1.015094734303236</v>
       </c>
       <c r="E8">
-        <v>0.9996733557831611</v>
+        <v>1.000266318695511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040677908789817</v>
+        <v>1.040877506256403</v>
       </c>
       <c r="J8">
-        <v>1.01404057946778</v>
+        <v>1.014706453402358</v>
       </c>
       <c r="K8">
-        <v>1.025598250118345</v>
+        <v>1.026074047281703</v>
       </c>
       <c r="L8">
-        <v>1.01085775349064</v>
+        <v>1.011442683733098</v>
       </c>
       <c r="N8">
-        <v>1.008746758231916</v>
+        <v>1.01129142258846</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029193468814166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029541057461747</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019090648592296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9840917959352159</v>
+        <v>0.9850553103023639</v>
       </c>
       <c r="D9">
-        <v>1.009563973948608</v>
+        <v>1.010393145845218</v>
       </c>
       <c r="E9">
-        <v>0.9934470974642506</v>
+        <v>0.9942778816975171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039584133981916</v>
+        <v>1.039926748170216</v>
       </c>
       <c r="J9">
-        <v>1.010219097153499</v>
+        <v>1.011147070667106</v>
       </c>
       <c r="K9">
-        <v>1.022503764957962</v>
+        <v>1.023319822360971</v>
       </c>
       <c r="L9">
-        <v>1.00664739323605</v>
+        <v>1.007464483548222</v>
       </c>
       <c r="N9">
-        <v>1.007467380137224</v>
+        <v>1.010352641569353</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027002193030357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027590097679719</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018583687126306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9784777269415501</v>
+        <v>0.9796725790831431</v>
       </c>
       <c r="D10">
-        <v>1.006092702701231</v>
+        <v>1.007188732101209</v>
       </c>
       <c r="E10">
-        <v>0.9891742676477812</v>
+        <v>0.9902033897590211</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038779147360238</v>
+        <v>1.03923170235599</v>
       </c>
       <c r="J10">
-        <v>1.007572062636785</v>
+        <v>1.008716574018822</v>
       </c>
       <c r="K10">
-        <v>1.020352816025635</v>
+        <v>1.021429393589886</v>
       </c>
       <c r="L10">
-        <v>1.003741774260918</v>
+        <v>1.004751806883881</v>
       </c>
       <c r="N10">
-        <v>1.00658145627019</v>
+        <v>1.009822350148071</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025498337561444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026272128761538</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018225815092993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9760033277627159</v>
+        <v>0.9773570177984063</v>
       </c>
       <c r="D11">
-        <v>1.004576173714452</v>
+        <v>1.005829284128681</v>
       </c>
       <c r="E11">
-        <v>0.9873013402839547</v>
+        <v>0.9884678490593058</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038417836598621</v>
+        <v>1.038935581260759</v>
       </c>
       <c r="J11">
-        <v>1.00640962955408</v>
+        <v>1.007703081520676</v>
       </c>
       <c r="K11">
-        <v>1.019412303038387</v>
+        <v>1.020642099656143</v>
       </c>
       <c r="L11">
-        <v>1.002466774968226</v>
+        <v>1.003610571767204</v>
       </c>
       <c r="N11">
-        <v>1.006193328354398</v>
+        <v>1.00978171434</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024866628011038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025751967126155</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018078597410935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9750704162286864</v>
+        <v>0.9764893955137763</v>
       </c>
       <c r="D12">
-        <v>1.004000836545438</v>
+        <v>1.005316952553251</v>
       </c>
       <c r="E12">
-        <v>0.9865958486065266</v>
+        <v>0.9878189131860408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03827736315336</v>
+        <v>1.038821314879618</v>
       </c>
       <c r="J12">
-        <v>1.00596864135558</v>
+        <v>1.00732320628442</v>
       </c>
       <c r="K12">
-        <v>1.019051786157764</v>
+        <v>1.020342992186066</v>
       </c>
       <c r="L12">
-        <v>1.001984436868993</v>
+        <v>1.003183264623056</v>
       </c>
       <c r="N12">
-        <v>1.006045607217944</v>
+        <v>1.00978240062602</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024611724251662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025540487976399</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01802185574536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9752698371845303</v>
+        <v>0.9766746131256006</v>
       </c>
       <c r="D13">
-        <v>1.004122915719905</v>
+        <v>1.005425372665664</v>
       </c>
       <c r="E13">
-        <v>0.9867464439447324</v>
+        <v>0.9879572041580479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038306959613678</v>
+        <v>1.038845233814828</v>
       </c>
       <c r="J13">
-        <v>1.006062390540797</v>
+        <v>1.007403667591948</v>
       </c>
       <c r="K13">
-        <v>1.019127781159986</v>
+        <v>1.020405676757493</v>
       </c>
       <c r="L13">
-        <v>1.002087139487499</v>
+        <v>1.003273996849734</v>
       </c>
       <c r="N13">
-        <v>1.00607691470815</v>
+        <v>1.009781228441459</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024662928787985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025582038520036</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018033613063616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9759259261533569</v>
+        <v>0.9772849194381658</v>
       </c>
       <c r="D14">
-        <v>1.004528050767627</v>
+        <v>1.005786301378021</v>
       </c>
       <c r="E14">
-        <v>0.987242715287472</v>
+        <v>0.9884138173400102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038405999055428</v>
+        <v>1.038925883246348</v>
       </c>
       <c r="J14">
-        <v>1.006372820588409</v>
+        <v>1.007671239553443</v>
       </c>
       <c r="K14">
-        <v>1.019381934411673</v>
+        <v>1.020616742136907</v>
       </c>
       <c r="L14">
-        <v>1.002426583935474</v>
+        <v>1.003574851121716</v>
       </c>
       <c r="N14">
-        <v>1.006180957179401</v>
+        <v>1.009781306880878</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024844072934735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025732851968916</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018073729507397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9763311812078802</v>
+        <v>0.9776626264378956</v>
       </c>
       <c r="D15">
-        <v>1.004780137686519</v>
+        <v>1.006011633615944</v>
       </c>
       <c r="E15">
-        <v>0.9875497332715137</v>
+        <v>0.9886969781997013</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038467963324377</v>
+        <v>1.038976712590331</v>
       </c>
       <c r="J15">
-        <v>1.006565595241499</v>
+        <v>1.007838207808785</v>
       </c>
       <c r="K15">
-        <v>1.019541037413432</v>
+        <v>1.02074976031448</v>
       </c>
       <c r="L15">
-        <v>1.002637068365124</v>
+        <v>1.003762115126676</v>
       </c>
       <c r="N15">
-        <v>1.006245756665119</v>
+        <v>1.009784157332553</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024962521153406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025833424204148</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018099275539679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9786592561867903</v>
+        <v>0.9798437150723281</v>
       </c>
       <c r="D16">
-        <v>1.006219107739153</v>
+        <v>1.007304734338271</v>
       </c>
       <c r="E16">
-        <v>0.9893143849101708</v>
+        <v>0.9903345080659083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038814215835778</v>
+        <v>1.039262394115428</v>
       </c>
       <c r="J16">
-        <v>1.007666343358919</v>
+        <v>1.008801085585091</v>
       </c>
       <c r="K16">
-        <v>1.020440624362877</v>
+        <v>1.021507046292801</v>
       </c>
       <c r="L16">
-        <v>1.003842035429256</v>
+        <v>1.004843298573406</v>
       </c>
       <c r="N16">
-        <v>1.006614564043432</v>
+        <v>1.009833571037637</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025601790800967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026372375990793</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018242818422764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9801049637802789</v>
+        <v>0.9812095091095511</v>
       </c>
       <c r="D17">
-        <v>1.007114148182509</v>
+        <v>1.008117129040503</v>
       </c>
       <c r="E17">
-        <v>0.9904126164634427</v>
+        <v>0.9913637737648574</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039026267938005</v>
+        <v>1.039440203412919</v>
       </c>
       <c r="J17">
-        <v>1.008349747095011</v>
+        <v>1.009409433555809</v>
       </c>
       <c r="K17">
-        <v>1.020998579911881</v>
+        <v>1.021984316864649</v>
       </c>
       <c r="L17">
-        <v>1.004590861748666</v>
+        <v>1.005524940932962</v>
       </c>
       <c r="N17">
-        <v>1.006843537563632</v>
+        <v>1.009901349278985</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025998920844023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02671270224965</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018333205001197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9809373718953971</v>
+        <v>0.9820002847810785</v>
       </c>
       <c r="D18">
-        <v>1.007625374962299</v>
+        <v>1.008583722557175</v>
       </c>
       <c r="E18">
-        <v>0.9910450451186755</v>
+        <v>0.9919603421757747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.03914456496197</v>
+        <v>1.039540054447821</v>
       </c>
       <c r="J18">
-        <v>1.00874040264763</v>
+        <v>1.009760980626063</v>
       </c>
       <c r="K18">
-        <v>1.021313769955573</v>
+        <v>1.02225591663549</v>
       </c>
       <c r="L18">
-        <v>1.005020164047768</v>
+        <v>1.005919308790252</v>
       </c>
       <c r="N18">
-        <v>1.006973936489245</v>
+        <v>1.009953650127934</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026209978046396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026891803954477</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018383875755657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9812247314943202</v>
+        <v>0.9822740920062113</v>
       </c>
       <c r="D19">
-        <v>1.00780553239723</v>
+        <v>1.00874909414298</v>
       </c>
       <c r="E19">
-        <v>0.9912640990229669</v>
+        <v>0.9921677316190471</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039187334440999</v>
+        <v>1.0395767068215</v>
       </c>
       <c r="J19">
-        <v>1.008877404744436</v>
+        <v>1.009885249441713</v>
       </c>
       <c r="K19">
-        <v>1.021427050742029</v>
+        <v>1.022354753981078</v>
       </c>
       <c r="L19">
-        <v>1.005169985352421</v>
+        <v>1.006057766153713</v>
       </c>
       <c r="N19">
-        <v>1.007020049460554</v>
+        <v>1.009975416877212</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026296554616878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026968788605095</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018402913263588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9799499477901878</v>
+        <v>0.9810626003292827</v>
       </c>
       <c r="D20">
-        <v>1.007017766204104</v>
+        <v>1.008029283559519</v>
       </c>
       <c r="E20">
-        <v>0.9902947108645933</v>
+        <v>0.9912528585219872</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039003431835209</v>
+        <v>1.039420902388946</v>
       </c>
       <c r="J20">
-        <v>1.008276260549367</v>
+        <v>1.009343563508051</v>
       </c>
       <c r="K20">
-        <v>1.020938328964599</v>
+        <v>1.021932401874291</v>
       </c>
       <c r="L20">
-        <v>1.004510390173803</v>
+        <v>1.005451279659715</v>
       </c>
       <c r="N20">
-        <v>1.006818877865848</v>
+        <v>1.009892458087053</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025954966092698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026674512550433</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018323316503465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9757390113412527</v>
+        <v>0.9771301151768634</v>
       </c>
       <c r="D21">
-        <v>1.004417468859287</v>
+        <v>1.005701667860323</v>
       </c>
       <c r="E21">
-        <v>0.9871021234792128</v>
+        <v>0.9883013929081186</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038380666792575</v>
+        <v>1.038911482012594</v>
       </c>
       <c r="J21">
-        <v>1.006287299758779</v>
+        <v>1.007616143684063</v>
       </c>
       <c r="K21">
-        <v>1.019315631464126</v>
+        <v>1.020575819585637</v>
       </c>
       <c r="L21">
-        <v>1.002332040596952</v>
+        <v>1.003507840970745</v>
       </c>
       <c r="N21">
-        <v>1.006152832927784</v>
+        <v>1.009848783395786</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024810894860072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025718928570848</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018067909334811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9730349264007829</v>
+        <v>0.9746043169886264</v>
       </c>
       <c r="D22">
-        <v>1.002746589071428</v>
+        <v>1.004206045795561</v>
       </c>
       <c r="E22">
-        <v>0.9850590671993519</v>
+        <v>0.9864125517379263</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037967528207902</v>
+        <v>1.038571168733734</v>
       </c>
       <c r="J22">
-        <v>1.005006024303237</v>
+        <v>1.006501084353788</v>
       </c>
       <c r="K22">
-        <v>1.018263831152583</v>
+        <v>1.019694638058624</v>
       </c>
       <c r="L22">
-        <v>1.000932433362619</v>
+        <v>1.002258071159742</v>
       </c>
       <c r="N22">
-        <v>1.005723090187135</v>
+        <v>1.009808286035525</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024053515331337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025080891590667</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01789851101491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9744659318453652</v>
+        <v>0.9759284199645908</v>
       </c>
       <c r="D23">
-        <v>1.003624518539275</v>
+        <v>1.004982288841897</v>
       </c>
       <c r="E23">
-        <v>0.9861384726774968</v>
+        <v>0.9873992564394486</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038183674759438</v>
+        <v>1.03874498839301</v>
       </c>
       <c r="J23">
-        <v>1.005680618808666</v>
+        <v>1.007075871263857</v>
       </c>
       <c r="K23">
-        <v>1.018813357902023</v>
+        <v>1.020145147999121</v>
       </c>
       <c r="L23">
-        <v>1.001670312885236</v>
+        <v>1.002905830893967</v>
       </c>
       <c r="N23">
-        <v>1.005948704234558</v>
+        <v>1.009785495521815</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024432297973673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025388722388238</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017983682500101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800080443984971</v>
+        <v>0.9811175170396972</v>
       </c>
       <c r="D24">
-        <v>1.007044212091867</v>
+        <v>1.00805227589491</v>
       </c>
       <c r="E24">
-        <v>0.9903373064726827</v>
+        <v>0.9912927230734992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039006295078475</v>
+        <v>1.039422371584125</v>
       </c>
       <c r="J24">
-        <v>1.008297996942052</v>
+        <v>1.009362320856273</v>
       </c>
       <c r="K24">
-        <v>1.020948742533936</v>
+        <v>1.021939444919651</v>
       </c>
       <c r="L24">
-        <v>1.004536261667539</v>
+        <v>1.005474493399226</v>
       </c>
       <c r="N24">
-        <v>1.00682514548256</v>
+        <v>1.009892688750919</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025934554560221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026649050738023</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018323095261277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862370717897035</v>
+        <v>0.9871171600163999</v>
       </c>
       <c r="D25">
-        <v>1.010906095624462</v>
+        <v>1.011636833051117</v>
       </c>
       <c r="E25">
-        <v>0.9950892088079634</v>
+        <v>0.9958483432393377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039888303274587</v>
+        <v>1.040190289288477</v>
       </c>
       <c r="J25">
-        <v>1.011236659620108</v>
+        <v>1.012085999783237</v>
       </c>
       <c r="K25">
-        <v>1.023337435152026</v>
+        <v>1.024057148601743</v>
       </c>
       <c r="L25">
-        <v>1.007764239850185</v>
+        <v>1.008511452039608</v>
       </c>
       <c r="N25">
-        <v>1.007809077013649</v>
+        <v>1.010570707260868</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027620627405033</v>
+        <v>1.028143206952253</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018722764922933</v>
       </c>
     </row>
   </sheetData>
